--- a/설계및정의서/클래스 다이어그램 설명서.xlsx
+++ b/설계및정의서/클래스 다이어그램 설명서.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kindc\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E0AED9-AE85-4534-BBD3-F0AE43BBCB06}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="6390" yWindow="3405" windowWidth="21600" windowHeight="11385" xr2:uid="{1D7878CA-551F-4CB2-9576-95609195DE33}"/>
+    <workbookView xWindow="6390" yWindow="3405" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="83">
   <si>
     <t>클래스 다이어그램</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -307,13 +301,57 @@
   </si>
   <si>
     <t>방을 만드는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">void </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ViewMapList(int MapCount)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방 만드는 화면 으로 이동할 경우 화면 중앙 부근에 게임에 저장되어진 맵의 리스트가 보여지게 된다. MapCount는 처음에 0으로 시작하고 좌측 클릭시 -1 (단 0일경우에는 리스트의 마지막값을 지정) 우측 클릭시 +1 (단 리스트의 마지막 값일경우 0으로 지정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MapCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>object[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리소스에 저장되어진 맵을 가지고 있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 선택되어진 맵의 길이를 가지고 있을 변수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoomInside</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방 접속 화면</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -553,12 +591,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -582,33 +647,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -670,7 +708,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -722,7 +760,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -916,18 +954,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA478CD-39A4-4406-98EE-11DC6D725F78}">
-  <dimension ref="E1:M31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C9" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -942,48 +980,48 @@
   <sheetData>
     <row r="1" spans="5:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
       <c r="H2" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" spans="5:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E3" s="12">
+      <c r="E3" s="21">
         <v>43738.709722222222</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
       <c r="H3" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
     </row>
     <row r="5" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
     </row>
     <row r="6" spans="5:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="E6" s="3" t="s">
@@ -1001,21 +1039,21 @@
       <c r="I6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="J6" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
     </row>
     <row r="7" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="14" t="s">
         <v>8</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -1024,89 +1062,89 @@
       <c r="I7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
     </row>
     <row r="8" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
       <c r="H8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
     </row>
     <row r="9" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
       <c r="H9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
     </row>
     <row r="10" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
       <c r="H10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
     </row>
     <row r="11" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
       <c r="H11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="J11" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
     </row>
     <row r="12" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="14" t="s">
         <v>8</v>
       </c>
       <c r="H12" s="1" t="s">
@@ -1115,72 +1153,72 @@
       <c r="I12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="J12" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
     </row>
     <row r="13" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
       <c r="H13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="8" t="s">
+      <c r="J13" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
     </row>
     <row r="14" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
       <c r="H14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J14" s="8" t="s">
+      <c r="J14" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
     </row>
     <row r="15" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
       <c r="H15" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J15" s="8" t="s">
+      <c r="J15" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
     </row>
     <row r="16" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="22" t="s">
+      <c r="G16" s="15" t="s">
         <v>8</v>
       </c>
       <c r="H16" s="1" t="s">
@@ -1189,80 +1227,80 @@
       <c r="I16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J16" s="8" t="s">
+      <c r="J16" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
     </row>
     <row r="17" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="19" t="s">
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I17" s="18" t="s">
+      <c r="I17" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="J17" s="9" t="s">
+      <c r="J17" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
     </row>
     <row r="18" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
       <c r="H18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J18" s="8" t="s">
+      <c r="J18" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
     </row>
     <row r="19" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
       <c r="H19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J19" s="8" t="s">
+      <c r="J19" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
     </row>
     <row r="20" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="20" t="s">
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I20" s="21" t="s">
+      <c r="I20" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="J20" s="9" t="s">
+      <c r="J20" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
     </row>
     <row r="21" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
@@ -1274,18 +1312,18 @@
       <c r="I21" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="J21" s="8" t="s">
+      <c r="J21" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
     </row>
     <row r="22" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="H22" s="19" t="s">
+      <c r="H22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I22" s="18" t="s">
+      <c r="I22" s="8" t="s">
         <v>52</v>
       </c>
       <c r="J22" t="s">
@@ -1293,10 +1331,10 @@
       </c>
     </row>
     <row r="23" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="H23" s="19" t="s">
+      <c r="H23" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I23" s="18" t="s">
+      <c r="I23" s="8" t="s">
         <v>54</v>
       </c>
       <c r="J23" t="s">
@@ -1310,10 +1348,10 @@
       <c r="F24" t="s">
         <v>70</v>
       </c>
-      <c r="H24" s="19" t="s">
+      <c r="H24" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I24" s="18" t="s">
+      <c r="I24" s="8" t="s">
         <v>63</v>
       </c>
       <c r="J24" t="s">
@@ -1322,61 +1360,102 @@
     </row>
     <row r="25" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E25" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E33" t="s">
+        <v>65</v>
+      </c>
+      <c r="F33" t="s">
+        <v>66</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="J33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="H34" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E36" t="s">
+        <v>56</v>
+      </c>
+      <c r="F36" t="s">
+        <v>57</v>
+      </c>
+      <c r="I36" t="s">
+        <v>58</v>
+      </c>
+      <c r="J36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="E37" t="s">
         <v>61</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F37" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="28" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E28" t="s">
-        <v>65</v>
-      </c>
-      <c r="F28" t="s">
-        <v>66</v>
-      </c>
-      <c r="H28" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="I28" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="J28" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="H29" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="I29" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="J29" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E31" t="s">
-        <v>56</v>
-      </c>
-      <c r="F31" t="s">
-        <v>57</v>
-      </c>
-      <c r="I31" t="s">
-        <v>58</v>
-      </c>
-      <c r="J31" t="s">
-        <v>59</v>
+      <c r="H37" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="I37" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="J37" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="H38" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I38" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="J38" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="39" spans="5:10" x14ac:dyDescent="0.3">
+      <c r="H39" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J39" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="E16:E20"/>
-    <mergeCell ref="F16:F20"/>
-    <mergeCell ref="G16:G20"/>
-    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="J16:M16"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="F12:F15"/>
@@ -1393,13 +1472,11 @@
     <mergeCell ref="G12:G15"/>
     <mergeCell ref="J15:M15"/>
     <mergeCell ref="J14:M14"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="E16:E20"/>
+    <mergeCell ref="F16:F20"/>
+    <mergeCell ref="G16:G20"/>
+    <mergeCell ref="J21:M21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/설계및정의서/클래스 다이어그램 설명서.xlsx
+++ b/설계및정의서/클래스 다이어그램 설명서.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kindc\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\BitCamp_AR\설계및정의서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E0AED9-AE85-4534-BBD3-F0AE43BBCB06}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6390" yWindow="3405" windowWidth="21600" windowHeight="11385" xr2:uid="{1D7878CA-551F-4CB2-9576-95609195DE33}"/>
+    <workbookView xWindow="6390" yWindow="3405" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="102">
   <si>
     <t>클래스 다이어그램</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -307,13 +307,134 @@
   </si>
   <si>
     <t>방을 만드는</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemManager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템을 생성,획득,사용하는 클래스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메서드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemCreate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemGet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameStartCountDisplay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TimeDisplay(int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 내에 UI관리하는 클래스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매서드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartLine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TrackCountDisplay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CarMove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameOver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameUIManager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameBasicFunction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임의 기본기능인 게임시작,차이동,게임종료 관리하는 클래스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트리거를 이용하여 아이템을 획득하는 메서드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemUse(int)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>획득한 아이템이 갖고있는 숫자에 따라 해당 아이템이 보유하고 있는 기능을 사용하는 메서드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">출발선을 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player가 한바퀴 돌때마다 count 하여 화면에 나타나게 하는 메서드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>넘겨받은 맵 고유의 숫자에 따라 화면에 맵을 보여주는 메서드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DirectionDisplay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 플레이어의 위치에 방향을 표시하는 메서드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템을 생성하는 메서드
+각각의 아이템이 갖고있는 숫자를 반환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MapDisplay(int)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -372,7 +493,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -522,13 +643,59 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -553,12 +720,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -583,32 +780,26 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -923,11 +1114,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DA478CD-39A4-4406-98EE-11DC6D725F78}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C9" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -937,53 +1128,53 @@
     <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.125" customWidth="1"/>
+    <col min="10" max="10" width="100.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="5:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
       <c r="H2" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" spans="5:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E3" s="12">
+      <c r="E3" s="22">
         <v>43738.709722222222</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
       <c r="H3" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
     </row>
     <row r="5" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
     </row>
     <row r="6" spans="5:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="E6" s="3" t="s">
@@ -1001,21 +1192,21 @@
       <c r="I6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="J6" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="27"/>
     </row>
     <row r="7" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="15" t="s">
         <v>8</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -1024,89 +1215,89 @@
       <c r="I7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
     </row>
     <row r="8" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
       <c r="H8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="8" t="s">
+      <c r="J8" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
     </row>
     <row r="9" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
       <c r="H9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="8" t="s">
+      <c r="J9" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
     </row>
     <row r="10" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
       <c r="H10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="J10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
     </row>
     <row r="11" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
       <c r="H11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="8" t="s">
+      <c r="J11" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
     </row>
     <row r="12" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="15" t="s">
         <v>8</v>
       </c>
       <c r="H12" s="1" t="s">
@@ -1115,72 +1306,72 @@
       <c r="I12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="J12" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
     </row>
     <row r="13" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
       <c r="H13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="8" t="s">
+      <c r="J13" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
     </row>
     <row r="14" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
       <c r="H14" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J14" s="8" t="s">
+      <c r="J14" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="K14" s="8"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
     </row>
     <row r="15" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
       <c r="H15" s="1" t="s">
         <v>25</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J15" s="8" t="s">
+      <c r="J15" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
     </row>
     <row r="16" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="22" t="s">
+      <c r="F16" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="22" t="s">
+      <c r="G16" s="16" t="s">
         <v>8</v>
       </c>
       <c r="H16" s="1" t="s">
@@ -1189,80 +1380,80 @@
       <c r="I16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J16" s="8" t="s">
+      <c r="J16" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="K16" s="8"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
     </row>
     <row r="17" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="19" t="s">
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I17" s="18" t="s">
+      <c r="I17" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="J17" s="9" t="s">
+      <c r="J17" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="9"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
     </row>
     <row r="18" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
       <c r="H18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J18" s="8" t="s">
+      <c r="J18" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="K18" s="8"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
     </row>
     <row r="19" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
       <c r="H19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J19" s="8" t="s">
+      <c r="J19" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="8"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
     </row>
     <row r="20" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="20" t="s">
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I20" s="21" t="s">
+      <c r="I20" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="J20" s="9" t="s">
+      <c r="J20" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="9"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="15"/>
     </row>
     <row r="21" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
@@ -1274,18 +1465,18 @@
       <c r="I21" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="J21" s="8" t="s">
+      <c r="J21" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="8"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
     </row>
     <row r="22" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="H22" s="19" t="s">
+      <c r="H22" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I22" s="18" t="s">
+      <c r="I22" s="9" t="s">
         <v>52</v>
       </c>
       <c r="J22" t="s">
@@ -1293,10 +1484,10 @@
       </c>
     </row>
     <row r="23" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="H23" s="19" t="s">
+      <c r="H23" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I23" s="18" t="s">
+      <c r="I23" s="9" t="s">
         <v>54</v>
       </c>
       <c r="J23" t="s">
@@ -1310,10 +1501,10 @@
       <c r="F24" t="s">
         <v>70</v>
       </c>
-      <c r="H24" s="19" t="s">
+      <c r="H24" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I24" s="18" t="s">
+      <c r="I24" s="9" t="s">
         <v>63</v>
       </c>
       <c r="J24" t="s">
@@ -1335,10 +1526,10 @@
       <c r="F28" t="s">
         <v>66</v>
       </c>
-      <c r="H28" s="19" t="s">
+      <c r="H28" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I28" s="18" t="s">
+      <c r="I28" s="9" t="s">
         <v>62</v>
       </c>
       <c r="J28" t="s">
@@ -1346,10 +1537,10 @@
       </c>
     </row>
     <row r="29" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="H29" s="25" t="s">
+      <c r="H29" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I29" s="26" t="s">
+      <c r="I29" s="14" t="s">
         <v>67</v>
       </c>
       <c r="J29" t="s">
@@ -1372,11 +1563,13 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="E16:E20"/>
-    <mergeCell ref="F16:F20"/>
-    <mergeCell ref="G16:G20"/>
-    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="J16:M16"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="F12:F15"/>
@@ -1393,16 +1586,244 @@
     <mergeCell ref="G12:G15"/>
     <mergeCell ref="J15:M15"/>
     <mergeCell ref="J14:M14"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="E16:E20"/>
+    <mergeCell ref="F16:F20"/>
+    <mergeCell ref="G16:G20"/>
+    <mergeCell ref="J21:M21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="G7:O19"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15:O15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="54" customWidth="1"/>
+    <col min="9" max="9" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="32.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="7:15" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="32"/>
+    </row>
+    <row r="8" spans="7:15" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" t="s">
+        <v>74</v>
+      </c>
+      <c r="J8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8" t="s">
+        <v>76</v>
+      </c>
+      <c r="L8" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+    </row>
+    <row r="9" spans="7:15" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K9" t="s">
+        <v>77</v>
+      </c>
+      <c r="L9" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+    </row>
+    <row r="10" spans="7:15" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K10" t="s">
+        <v>92</v>
+      </c>
+      <c r="L10" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+    </row>
+    <row r="11" spans="7:15" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G11" t="s">
+        <v>88</v>
+      </c>
+      <c r="H11" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" t="s">
+        <v>82</v>
+      </c>
+      <c r="J11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K11" t="s">
+        <v>84</v>
+      </c>
+      <c r="L11" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+    </row>
+    <row r="12" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="J12" t="s">
+        <v>75</v>
+      </c>
+      <c r="K12" t="s">
+        <v>101</v>
+      </c>
+      <c r="L12" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+    </row>
+    <row r="13" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="J13" t="s">
+        <v>75</v>
+      </c>
+      <c r="K13" t="s">
+        <v>97</v>
+      </c>
+      <c r="L13" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+    </row>
+    <row r="14" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+    </row>
+    <row r="15" spans="7:15" ht="33" x14ac:dyDescent="0.3">
+      <c r="G15" t="s">
+        <v>89</v>
+      </c>
+      <c r="H15" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="J15" t="s">
+        <v>85</v>
+      </c>
+      <c r="K15" t="s">
+        <v>86</v>
+      </c>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+    </row>
+    <row r="16" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="K16" t="s">
+        <v>87</v>
+      </c>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+    </row>
+    <row r="17" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="I17" t="s">
+        <v>74</v>
+      </c>
+      <c r="J17" t="s">
+        <v>79</v>
+      </c>
+      <c r="K17" t="s">
+        <v>78</v>
+      </c>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+    </row>
+    <row r="18" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="J18" t="s">
+        <v>75</v>
+      </c>
+      <c r="K18" t="s">
+        <v>80</v>
+      </c>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+    </row>
+    <row r="19" spans="9:15" x14ac:dyDescent="0.3">
+      <c r="K19" t="s">
+        <v>83</v>
+      </c>
+      <c r="L19" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="L18:O18"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="L14:O14"/>
+    <mergeCell ref="L15:O15"/>
+    <mergeCell ref="L16:O16"/>
+    <mergeCell ref="L17:O17"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="L12:O12"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/설계및정의서/클래스 다이어그램 설명서.xlsx
+++ b/설계및정의서/클래스 다이어그램 설명서.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6390" yWindow="3405" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="6390" yWindow="3405" windowWidth="21600" windowHeight="11385" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="128">
   <si>
     <t>클래스 다이어그램</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -314,120 +314,222 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아이템을 생성,획득,사용하는 클래스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메서드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemCreate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemGet</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GameStartCountDisplay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TimeDisplay(int)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임 내에 UI관리하는 클래스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매서드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StartLine</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TrackCountDisplay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CarMove</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GameOver</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GameUIManager</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GameBasicFunction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임의 기본기능인 게임시작,차이동,게임종료 관리하는 클래스</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>트리거를 이용하여 아이템을 획득하는 메서드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ItemUse(int)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>획득한 아이템이 갖고있는 숫자에 따라 해당 아이템이 보유하고 있는 기능을 사용하는 메서드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">출발선을 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Player가 한바퀴 돌때마다 count 하여 화면에 나타나게 하는 메서드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>넘겨받은 맵 고유의 숫자에 따라 화면에 맵을 보여주는 메서드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DirectionDisplay</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 플레이어의 위치에 방향을 표시하는 메서드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이템을 생성하는 메서드
-각각의 아이템이 갖고있는 숫자를 반환</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MapDisplay(int)</t>
+    <t>ItemGet(): int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemUse(ItemCode): void</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameManager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartLine(transform, PlayerGameUser[4]): int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameOver(): void</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ViewMapInGame(MapCode): void</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ViewTime(): String</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ViewStartCountDown(): void</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ViewEndCountDown(): void</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ViewJoyStick(): void</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ViewPlayerItem(ItemNum): void</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ViewRank(): int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ViewPlayer(User_NickName): void</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ViewRank(Rank): void</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ViewCoin(Coin): void</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ViewTimeRecord(RaceTime): void</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameOverManager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameOver(TrackCount): void</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetCoin(Rank[4]): int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InGameCar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ViewCar(): void</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveCar(): void</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ViewCarDirection(): void</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InGamePlayUIManager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ViewTrackCount(Trackcount): void</t>
+  </si>
+  <si>
+    <t>아이템관리 매니저</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 시작과 종료 매니저</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemCreate(): void</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">아이템 생성 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템 획득 - 예를 들어서 box collider랑 부딪혔을 때 random으로 숫자(ItemCode)를 Get한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>획득한 아이템에 해당하는 기능을 발현한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StartLine을 그리고 그 위치를 받아, player들을 배치한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">게임 종료 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트랙수 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동차 조종하는 joystick 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>획득한 아이템에 해당하는 이미지를 화면에 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임중 player들의 등수를 실시간으로 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임에 참여한 player의 닉네임을 등수별로 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임에 참여한 player의 등수를 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등수별로 차등지급되는 코인 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간 표시(00:00:00)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임시작전 countdown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1위가 마지막바퀴 다 돌앗을 시 10초 count 보여주고 종료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>player가 게임종료 시 총 걸린 시간 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1명이 트랙을 다돌면 gameover작동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>획득한 코인을 데이터베이스에 저장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 내에서 차를 보여줌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차를 이동함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>차의 이동방향을 표시해줌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임종료시 화면에 보여지는 UI관리하는 매니저</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 종료 조건과 보상을 관리하는 매니저</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AfterGameUIManager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임내에서 차를 관리하는 매니저</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임중에 화면에 보여지는 UI관리하는 매니져</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -493,7 +595,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -653,11 +755,31 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -668,9 +790,25 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -681,9 +819,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -695,7 +831,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -720,9 +856,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -742,6 +875,33 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -751,54 +911,75 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1117,8 +1298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7:M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1133,48 +1314,48 @@
   <sheetData>
     <row r="1" spans="5:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
       <c r="H2" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" spans="5:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E3" s="22">
+      <c r="E3" s="18">
         <v>43738.709722222222</v>
       </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
       <c r="H3" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
     </row>
     <row r="5" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
     </row>
     <row r="6" spans="5:13" ht="17.25" x14ac:dyDescent="0.3">
       <c r="E6" s="3" t="s">
@@ -1192,12 +1373,12 @@
       <c r="I6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="27" t="s">
+      <c r="J6" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
     </row>
     <row r="7" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E7" s="15" t="s">
@@ -1215,12 +1396,12 @@
       <c r="I7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="J7" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
     </row>
     <row r="8" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E8" s="15"/>
@@ -1232,12 +1413,12 @@
       <c r="I8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="19" t="s">
+      <c r="J8" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
     </row>
     <row r="9" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E9" s="15"/>
@@ -1249,12 +1430,12 @@
       <c r="I9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="J9" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
     </row>
     <row r="10" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E10" s="15"/>
@@ -1266,12 +1447,12 @@
       <c r="I10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="19" t="s">
+      <c r="J10" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
     </row>
     <row r="11" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E11" s="15"/>
@@ -1283,12 +1464,12 @@
       <c r="I11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="19" t="s">
+      <c r="J11" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
     </row>
     <row r="12" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E12" s="15" t="s">
@@ -1306,12 +1487,12 @@
       <c r="I12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="19" t="s">
+      <c r="J12" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
     </row>
     <row r="13" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E13" s="15"/>
@@ -1323,12 +1504,12 @@
       <c r="I13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="19" t="s">
+      <c r="J13" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
     </row>
     <row r="14" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E14" s="15"/>
@@ -1340,12 +1521,12 @@
       <c r="I14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J14" s="19" t="s">
+      <c r="J14" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
     </row>
     <row r="15" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E15" s="15"/>
@@ -1357,21 +1538,21 @@
       <c r="I15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J15" s="19" t="s">
+      <c r="J15" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
     </row>
     <row r="16" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="24" t="s">
         <v>8</v>
       </c>
       <c r="H16" s="1" t="s">
@@ -1380,21 +1561,21 @@
       <c r="I16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J16" s="19" t="s">
+      <c r="J16" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
     </row>
     <row r="17" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="10" t="s">
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="I17" s="8" t="s">
         <v>45</v>
       </c>
       <c r="J17" s="15" t="s">
@@ -1405,47 +1586,47 @@
       <c r="M17" s="15"/>
     </row>
     <row r="18" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
       <c r="H18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J18" s="19" t="s">
+      <c r="J18" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
     </row>
     <row r="19" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
       <c r="H19" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J19" s="19" t="s">
+      <c r="J19" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
     </row>
     <row r="20" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="11" t="s">
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I20" s="12" t="s">
+      <c r="I20" s="11" t="s">
         <v>47</v>
       </c>
       <c r="J20" s="15" t="s">
@@ -1465,18 +1646,18 @@
       <c r="I21" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="J21" s="19" t="s">
+      <c r="J21" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
     </row>
     <row r="22" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="H22" s="10" t="s">
+      <c r="H22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I22" s="9" t="s">
+      <c r="I22" s="8" t="s">
         <v>52</v>
       </c>
       <c r="J22" t="s">
@@ -1484,10 +1665,10 @@
       </c>
     </row>
     <row r="23" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="H23" s="10" t="s">
+      <c r="H23" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I23" s="9" t="s">
+      <c r="I23" s="8" t="s">
         <v>54</v>
       </c>
       <c r="J23" t="s">
@@ -1501,10 +1682,10 @@
       <c r="F24" t="s">
         <v>70</v>
       </c>
-      <c r="H24" s="10" t="s">
+      <c r="H24" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I24" s="9" t="s">
+      <c r="I24" s="8" t="s">
         <v>63</v>
       </c>
       <c r="J24" t="s">
@@ -1526,10 +1707,10 @@
       <c r="F28" t="s">
         <v>66</v>
       </c>
-      <c r="H28" s="10" t="s">
+      <c r="H28" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="I28" s="9" t="s">
+      <c r="I28" s="8" t="s">
         <v>62</v>
       </c>
       <c r="J28" t="s">
@@ -1537,10 +1718,10 @@
       </c>
     </row>
     <row r="29" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="H29" s="13" t="s">
+      <c r="H29" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="I29" s="14" t="s">
+      <c r="I29" s="13" t="s">
         <v>67</v>
       </c>
       <c r="J29" t="s">
@@ -1563,13 +1744,11 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="E16:E20"/>
+    <mergeCell ref="F16:F20"/>
+    <mergeCell ref="G16:G20"/>
+    <mergeCell ref="J21:M21"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="F12:F15"/>
@@ -1586,11 +1765,13 @@
     <mergeCell ref="G12:G15"/>
     <mergeCell ref="J15:M15"/>
     <mergeCell ref="J14:M14"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="E16:E20"/>
-    <mergeCell ref="F16:F20"/>
-    <mergeCell ref="G16:G20"/>
-    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="J16:M16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1600,214 +1781,473 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="G7:O19"/>
+  <dimension ref="E7:P30"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15:O15"/>
+    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="54" customWidth="1"/>
     <col min="9" max="9" width="18.125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="41.75" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="32.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="7:15" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="G7" s="8" t="s">
+    <row r="7" spans="5:16" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="G7" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="L7" s="30" t="s">
+      <c r="L7" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="32"/>
-    </row>
-    <row r="8" spans="7:15" ht="63" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G8" t="s">
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="31"/>
+    </row>
+    <row r="8" spans="5:16" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G8" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="H8" t="s">
-        <v>73</v>
-      </c>
-      <c r="I8" t="s">
-        <v>74</v>
-      </c>
-      <c r="J8" t="s">
-        <v>99</v>
-      </c>
-      <c r="K8" t="s">
-        <v>76</v>
+      <c r="H8" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33" t="s">
+        <v>100</v>
       </c>
       <c r="L8" s="34" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M8" s="34"/>
       <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
-    </row>
-    <row r="9" spans="7:15" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K9" t="s">
-        <v>77</v>
+      <c r="O8" s="38"/>
+    </row>
+    <row r="9" spans="5:16" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G9" s="37"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33" t="s">
+        <v>73</v>
       </c>
       <c r="L9" s="34" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="M9" s="34"/>
       <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
-    </row>
-    <row r="10" spans="7:15" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K10" t="s">
-        <v>92</v>
-      </c>
-      <c r="L10" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
-    </row>
-    <row r="11" spans="7:15" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G11" t="s">
-        <v>88</v>
+      <c r="O9" s="38"/>
+    </row>
+    <row r="10" spans="5:16" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G10" s="40"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="L10" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="44"/>
+    </row>
+    <row r="11" spans="5:16" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="45" t="s">
+        <v>75</v>
       </c>
       <c r="H11" t="s">
-        <v>81</v>
-      </c>
-      <c r="I11" t="s">
-        <v>82</v>
-      </c>
-      <c r="J11" t="s">
-        <v>85</v>
-      </c>
-      <c r="K11" t="s">
-        <v>84</v>
-      </c>
-      <c r="L11" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-    </row>
-    <row r="12" spans="7:15" x14ac:dyDescent="0.3">
-      <c r="J12" t="s">
-        <v>75</v>
-      </c>
-      <c r="K12" t="s">
-        <v>101</v>
-      </c>
-      <c r="L12" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="L11" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="33"/>
+    </row>
+    <row r="12" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="40"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="L12" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="44"/>
+      <c r="P12" s="33"/>
+    </row>
+    <row r="13" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
-    </row>
-    <row r="13" spans="7:15" x14ac:dyDescent="0.3">
-      <c r="J13" t="s">
-        <v>75</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="H13" t="s">
+        <v>127</v>
+      </c>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="L13" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-    </row>
-    <row r="14" spans="7:15" x14ac:dyDescent="0.3">
-      <c r="L14" s="34"/>
+      <c r="L13" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="M13" s="27"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="33"/>
+    </row>
+    <row r="14" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="37"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="L14" s="34" t="s">
+        <v>107</v>
+      </c>
       <c r="M14" s="34"/>
       <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-    </row>
-    <row r="15" spans="7:15" ht="33" x14ac:dyDescent="0.3">
-      <c r="G15" t="s">
-        <v>89</v>
-      </c>
-      <c r="H15" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="J15" t="s">
-        <v>85</v>
-      </c>
-      <c r="K15" t="s">
-        <v>86</v>
-      </c>
-      <c r="L15" s="34"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="33"/>
+    </row>
+    <row r="15" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="37"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="L15" s="34" t="s">
+        <v>114</v>
+      </c>
       <c r="M15" s="34"/>
       <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-    </row>
-    <row r="16" spans="7:15" x14ac:dyDescent="0.3">
-      <c r="K16" t="s">
-        <v>87</v>
-      </c>
-      <c r="L16" s="34"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="33"/>
+    </row>
+    <row r="16" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="37"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="L16" s="34" t="s">
+        <v>115</v>
+      </c>
       <c r="M16" s="34"/>
       <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
-    </row>
-    <row r="17" spans="9:15" x14ac:dyDescent="0.3">
-      <c r="I17" t="s">
-        <v>74</v>
-      </c>
-      <c r="J17" t="s">
-        <v>79</v>
-      </c>
-      <c r="K17" t="s">
-        <v>78</v>
-      </c>
-      <c r="L17" s="34"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="33"/>
+    </row>
+    <row r="17" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="37"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="L17" s="34" t="s">
+        <v>116</v>
+      </c>
       <c r="M17" s="34"/>
       <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
-    </row>
-    <row r="18" spans="9:15" x14ac:dyDescent="0.3">
-      <c r="J18" t="s">
-        <v>75</v>
-      </c>
-      <c r="K18" t="s">
-        <v>80</v>
-      </c>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="33"/>
-    </row>
-    <row r="19" spans="9:15" x14ac:dyDescent="0.3">
-      <c r="K19" t="s">
+      <c r="O17" s="38"/>
+      <c r="P17" s="33"/>
+    </row>
+    <row r="18" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="37"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="L18" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="33"/>
+    </row>
+    <row r="19" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="37"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33" t="s">
         <v>83</v>
       </c>
       <c r="L19" s="34" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="M19" s="34"/>
       <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
+      <c r="O19" s="38"/>
+      <c r="P19" s="33"/>
+    </row>
+    <row r="20" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="40"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="L20" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="33"/>
+    </row>
+    <row r="21" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="H21" t="s">
+        <v>123</v>
+      </c>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="L21" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="M21" s="47"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="48"/>
+      <c r="P21" s="33"/>
+    </row>
+    <row r="22" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="37"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="L22" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="39"/>
+      <c r="P22" s="33"/>
+    </row>
+    <row r="23" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="37"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="L23" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="39"/>
+      <c r="P23" s="33"/>
+    </row>
+    <row r="24" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="40"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="L24" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="33"/>
+    </row>
+    <row r="25" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="H25" t="s">
+        <v>124</v>
+      </c>
+      <c r="I25" s="46"/>
+      <c r="J25" s="46"/>
+      <c r="K25" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="L25" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="M25" s="47"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="48"/>
+      <c r="P25" s="33"/>
+    </row>
+    <row r="26" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="40"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="L26" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="33"/>
+    </row>
+    <row r="27" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="37" t="s">
+        <v>92</v>
+      </c>
+      <c r="H27" t="s">
+        <v>126</v>
+      </c>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="L27" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="33"/>
+    </row>
+    <row r="28" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="37"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="L28" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35"/>
+      <c r="O28" s="39"/>
+      <c r="P28" s="33"/>
+    </row>
+    <row r="29" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="40"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="L29" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="M29" s="32"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="42"/>
+      <c r="P29" s="33"/>
+    </row>
+    <row r="30" spans="5:16" x14ac:dyDescent="0.3">
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="35"/>
+      <c r="O30" s="35"/>
+      <c r="P30" s="33"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="24">
+    <mergeCell ref="L30:O30"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="L26:O26"/>
+    <mergeCell ref="L27:O27"/>
+    <mergeCell ref="L28:O28"/>
+    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="L12:O12"/>
     <mergeCell ref="L18:O18"/>
     <mergeCell ref="L11:O11"/>
     <mergeCell ref="L13:O13"/>
@@ -1815,12 +2255,6 @@
     <mergeCell ref="L15:O15"/>
     <mergeCell ref="L16:O16"/>
     <mergeCell ref="L17:O17"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="L19:O19"/>
-    <mergeCell ref="L12:O12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/설계및정의서/클래스 다이어그램 설명서.xlsx
+++ b/설계및정의서/클래스 다이어그램 설명서.xlsx
@@ -1,21 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\BitCamp_AR\설계및정의서\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6390" yWindow="3405" windowWidth="21600" windowHeight="11385" activeTab="1"/>
+    <workbookView xWindow="6390" yWindow="3405" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="129">
   <si>
     <t>클래스 다이어그램</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -530,13 +525,17 @@
   </si>
   <si>
     <t>게임중에 화면에 보여지는 UI관리하는 매니져</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019-10-02  19:17:00 PM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -595,7 +594,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -677,21 +676,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -825,162 +809,365 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1042,7 +1229,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1094,7 +1281,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1288,7 +1475,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1296,459 +1483,980 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="E1:M31"/>
+  <dimension ref="E1:M54"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:M32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.375" customWidth="1"/>
+    <col min="5" max="5" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="45.125" customWidth="1"/>
     <col min="10" max="10" width="100.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="5:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="4" t="s">
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" spans="5:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E3" s="18">
-        <v>43738.709722222222</v>
-      </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="5" t="s">
+      <c r="E3" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="45" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="48"/>
     </row>
     <row r="5" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="50"/>
     </row>
     <row r="6" spans="5:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="23" t="s">
+      <c r="J6" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="52"/>
     </row>
     <row r="7" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="54"/>
     </row>
     <row r="8" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="1" t="s">
+      <c r="E8" s="53"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="J8" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="54"/>
     </row>
     <row r="9" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="1" t="s">
+      <c r="E9" s="53"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="54"/>
     </row>
     <row r="10" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="1" t="s">
+      <c r="E10" s="53"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="J10" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="54"/>
     </row>
     <row r="11" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="1" t="s">
+      <c r="E11" s="53"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="14" t="s">
+      <c r="J11" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="54"/>
     </row>
     <row r="12" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="14" t="s">
+      <c r="J12" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="54"/>
     </row>
     <row r="13" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="1" t="s">
+      <c r="E13" s="53"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="14" t="s">
+      <c r="J13" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="54"/>
     </row>
     <row r="14" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="1" t="s">
+      <c r="E14" s="53"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="J14" s="14" t="s">
+      <c r="J14" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="54"/>
     </row>
     <row r="15" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="1" t="s">
+      <c r="E15" s="53"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J15" s="14" t="s">
+      <c r="J15" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="54"/>
     </row>
     <row r="16" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="24" t="s">
+      <c r="F16" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="24" t="s">
+      <c r="G16" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="J16" s="14" t="s">
+      <c r="J16" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="54"/>
     </row>
     <row r="17" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="9" t="s">
+      <c r="E17" s="56"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="I17" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J17" s="15" t="s">
+      <c r="J17" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="54"/>
     </row>
     <row r="18" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="1" t="s">
+      <c r="E18" s="56"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="J18" s="14" t="s">
+      <c r="J18" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="54"/>
     </row>
     <row r="19" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="1" t="s">
+      <c r="E19" s="56"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I19" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J19" s="14" t="s">
+      <c r="J19" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="54"/>
     </row>
     <row r="20" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="10" t="s">
+      <c r="E20" s="57"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I20" s="11" t="s">
+      <c r="I20" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="J20" s="15" t="s">
+      <c r="J20" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="54"/>
     </row>
     <row r="21" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E21" t="s">
+      <c r="E21" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="F21" s="41"/>
+      <c r="G21" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="I21" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="J21" s="14" t="s">
+      <c r="J21" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="54"/>
     </row>
     <row r="22" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="H22" s="9" t="s">
+      <c r="E22" s="56"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I22" s="8" t="s">
+      <c r="I22" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" s="63" t="s">
         <v>53</v>
       </c>
+      <c r="K22" s="64"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="65"/>
     </row>
     <row r="23" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="H23" s="9" t="s">
+      <c r="E23" s="57"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I23" s="8" t="s">
+      <c r="I23" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="63" t="s">
         <v>55</v>
       </c>
+      <c r="K23" s="64"/>
+      <c r="L23" s="64"/>
+      <c r="M23" s="65"/>
     </row>
     <row r="24" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E24" t="s">
+      <c r="E24" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="H24" s="9" t="s">
+      <c r="G24" s="62"/>
+      <c r="H24" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I24" s="8" t="s">
+      <c r="I24" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J24" s="63" t="s">
         <v>69</v>
       </c>
+      <c r="K24" s="64"/>
+      <c r="L24" s="64"/>
+      <c r="M24" s="65"/>
     </row>
     <row r="25" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E25" t="s">
+      <c r="E25" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="18" t="s">
         <v>71</v>
       </c>
+      <c r="G25" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="64"/>
+      <c r="L25" s="64"/>
+      <c r="M25" s="65"/>
+    </row>
+    <row r="26" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E26" s="56"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="64"/>
+      <c r="L26" s="64"/>
+      <c r="M26" s="65"/>
+    </row>
+    <row r="27" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E27" s="57"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="64"/>
+      <c r="L27" s="64"/>
+      <c r="M27" s="65"/>
     </row>
     <row r="28" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E28" t="s">
+      <c r="E28" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="H28" s="9" t="s">
+      <c r="G28" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I28" s="8" t="s">
+      <c r="I28" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J28" s="63" t="s">
         <v>64</v>
       </c>
+      <c r="K28" s="64"/>
+      <c r="L28" s="64"/>
+      <c r="M28" s="65"/>
     </row>
     <row r="29" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="H29" s="12" t="s">
+      <c r="E29" s="56"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I29" s="13" t="s">
+      <c r="I29" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J29" s="63" t="s">
         <v>68</v>
       </c>
+      <c r="K29" s="64"/>
+      <c r="L29" s="64"/>
+      <c r="M29" s="65"/>
+    </row>
+    <row r="30" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E30" s="57"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="64"/>
+      <c r="L30" s="64"/>
+      <c r="M30" s="65"/>
     </row>
     <row r="31" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E31" t="s">
+      <c r="E31" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="I31" t="s">
+      <c r="G31" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="J31" t="s">
+      <c r="J31" s="63" t="s">
         <v>59</v>
       </c>
+      <c r="K31" s="64"/>
+      <c r="L31" s="64"/>
+      <c r="M31" s="65"/>
+    </row>
+    <row r="32" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E32" s="57"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="64"/>
+      <c r="L32" s="64"/>
+      <c r="M32" s="65"/>
+    </row>
+    <row r="33" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E33" s="55" t="s">
+        <v>72</v>
+      </c>
+      <c r="F33" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="41"/>
+      <c r="I33" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="J33" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="K33" s="66"/>
+      <c r="L33" s="66"/>
+      <c r="M33" s="67"/>
+    </row>
+    <row r="34" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E34" s="56"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41" t="s">
+        <v>73</v>
+      </c>
+      <c r="J34" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="K34" s="66"/>
+      <c r="L34" s="66"/>
+      <c r="M34" s="67"/>
+    </row>
+    <row r="35" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E35" s="57"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="J35" s="66" t="s">
+        <v>103</v>
+      </c>
+      <c r="K35" s="66"/>
+      <c r="L35" s="66"/>
+      <c r="M35" s="67"/>
+    </row>
+    <row r="36" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E36" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="G36" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H36" s="41"/>
+      <c r="I36" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="J36" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="K36" s="21"/>
+      <c r="L36" s="21"/>
+      <c r="M36" s="54"/>
+    </row>
+    <row r="37" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E37" s="57"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="J37" s="66" t="s">
+        <v>105</v>
+      </c>
+      <c r="K37" s="66"/>
+      <c r="L37" s="66"/>
+      <c r="M37" s="67"/>
+    </row>
+    <row r="38" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E38" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="F38" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="G38" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="J38" s="66" t="s">
+        <v>106</v>
+      </c>
+      <c r="K38" s="66"/>
+      <c r="L38" s="66"/>
+      <c r="M38" s="67"/>
+    </row>
+    <row r="39" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E39" s="56"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="J39" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="K39" s="66"/>
+      <c r="L39" s="66"/>
+      <c r="M39" s="67"/>
+    </row>
+    <row r="40" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E40" s="56"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="42" t="s">
+        <v>79</v>
+      </c>
+      <c r="J40" s="66" t="s">
+        <v>114</v>
+      </c>
+      <c r="K40" s="66"/>
+      <c r="L40" s="66"/>
+      <c r="M40" s="67"/>
+    </row>
+    <row r="41" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E41" s="56"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="J41" s="66" t="s">
+        <v>115</v>
+      </c>
+      <c r="K41" s="66"/>
+      <c r="L41" s="66"/>
+      <c r="M41" s="67"/>
+    </row>
+    <row r="42" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E42" s="56"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="J42" s="66" t="s">
+        <v>116</v>
+      </c>
+      <c r="K42" s="66"/>
+      <c r="L42" s="66"/>
+      <c r="M42" s="67"/>
+    </row>
+    <row r="43" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E43" s="56"/>
+      <c r="F43" s="19"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="J43" s="66" t="s">
+        <v>108</v>
+      </c>
+      <c r="K43" s="66"/>
+      <c r="L43" s="66"/>
+      <c r="M43" s="67"/>
+    </row>
+    <row r="44" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E44" s="56"/>
+      <c r="F44" s="19"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="J44" s="66" t="s">
+        <v>109</v>
+      </c>
+      <c r="K44" s="66"/>
+      <c r="L44" s="66"/>
+      <c r="M44" s="67"/>
+    </row>
+    <row r="45" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E45" s="57"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="41"/>
+      <c r="I45" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="J45" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="K45" s="21"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="54"/>
+    </row>
+    <row r="46" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E46" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="F46" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="G46" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="H46" s="41"/>
+      <c r="I46" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="J46" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="K46" s="21"/>
+      <c r="L46" s="21"/>
+      <c r="M46" s="54"/>
+    </row>
+    <row r="47" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E47" s="56"/>
+      <c r="F47" s="19"/>
+      <c r="G47" s="19"/>
+      <c r="H47" s="41"/>
+      <c r="I47" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="J47" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="K47" s="21"/>
+      <c r="L47" s="21"/>
+      <c r="M47" s="54"/>
+    </row>
+    <row r="48" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E48" s="56"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="41"/>
+      <c r="I48" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="J48" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="K48" s="21"/>
+      <c r="L48" s="21"/>
+      <c r="M48" s="54"/>
+    </row>
+    <row r="49" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E49" s="57"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="41"/>
+      <c r="I49" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="J49" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="K49" s="21"/>
+      <c r="L49" s="21"/>
+      <c r="M49" s="54"/>
+    </row>
+    <row r="50" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E50" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="F50" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="G50" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="H50" s="41"/>
+      <c r="I50" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="J50" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="K50" s="21"/>
+      <c r="L50" s="21"/>
+      <c r="M50" s="54"/>
+    </row>
+    <row r="51" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E51" s="57"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="41"/>
+      <c r="I51" s="41" t="s">
+        <v>91</v>
+      </c>
+      <c r="J51" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="K51" s="21"/>
+      <c r="L51" s="21"/>
+      <c r="M51" s="54"/>
+    </row>
+    <row r="52" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E52" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="F52" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="G52" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" s="41"/>
+      <c r="I52" s="41" t="s">
+        <v>93</v>
+      </c>
+      <c r="J52" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="K52" s="21"/>
+      <c r="L52" s="21"/>
+      <c r="M52" s="54"/>
+    </row>
+    <row r="53" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E53" s="56"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="41"/>
+      <c r="I53" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="J53" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="K53" s="21"/>
+      <c r="L53" s="21"/>
+      <c r="M53" s="54"/>
+    </row>
+    <row r="54" spans="5:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E54" s="60"/>
+      <c r="F54" s="61"/>
+      <c r="G54" s="61"/>
+      <c r="H54" s="59"/>
+      <c r="I54" s="59" t="s">
+        <v>95</v>
+      </c>
+      <c r="J54" s="68" t="s">
+        <v>122</v>
+      </c>
+      <c r="K54" s="68"/>
+      <c r="L54" s="68"/>
+      <c r="M54" s="69"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="E16:E20"/>
-    <mergeCell ref="F16:F20"/>
-    <mergeCell ref="G16:G20"/>
-    <mergeCell ref="J21:M21"/>
+  <mergeCells count="90">
+    <mergeCell ref="G38:G45"/>
+    <mergeCell ref="G46:G49"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="G52:G54"/>
+    <mergeCell ref="F38:F45"/>
+    <mergeCell ref="F46:F49"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="F52:F54"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="F28:F30"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="E38:E45"/>
+    <mergeCell ref="E46:E49"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="E52:E54"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="E28:E30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="J53:M53"/>
+    <mergeCell ref="J54:M54"/>
+    <mergeCell ref="J48:M48"/>
+    <mergeCell ref="J49:M49"/>
+    <mergeCell ref="J50:M50"/>
+    <mergeCell ref="J51:M51"/>
+    <mergeCell ref="J52:M52"/>
+    <mergeCell ref="J43:M43"/>
+    <mergeCell ref="J44:M44"/>
+    <mergeCell ref="J45:M45"/>
+    <mergeCell ref="J46:M46"/>
+    <mergeCell ref="J47:M47"/>
+    <mergeCell ref="J38:M38"/>
+    <mergeCell ref="J39:M39"/>
+    <mergeCell ref="J40:M40"/>
+    <mergeCell ref="J41:M41"/>
+    <mergeCell ref="J42:M42"/>
+    <mergeCell ref="J33:M33"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="J35:M35"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="J16:M16"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="F12:F15"/>
@@ -1765,13 +2473,12 @@
     <mergeCell ref="G12:G15"/>
     <mergeCell ref="J15:M15"/>
     <mergeCell ref="J14:M14"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="E16:E20"/>
+    <mergeCell ref="F16:F20"/>
+    <mergeCell ref="G16:G20"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="E21:E23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1783,8 +2490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E7:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8:O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1798,450 +2505,439 @@
   </cols>
   <sheetData>
     <row r="7" spans="5:16" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="G7" s="28" t="s">
+      <c r="G7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="28" t="s">
+      <c r="H7" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="28" t="s">
+      <c r="I7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="28" t="s">
+      <c r="J7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="28" t="s">
+      <c r="K7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="L7" s="29" t="s">
+      <c r="L7" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="M7" s="30"/>
-      <c r="N7" s="30"/>
-      <c r="O7" s="31"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="34"/>
     </row>
     <row r="8" spans="5:16" ht="63" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G8" s="37" t="s">
+      <c r="G8" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="H8" s="33" t="s">
+      <c r="H8" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33" t="s">
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="L8" s="34" t="s">
+      <c r="L8" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="38"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="36"/>
     </row>
     <row r="9" spans="5:16" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G9" s="37"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33" t="s">
+      <c r="G9" s="12"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="L9" s="34" t="s">
+      <c r="L9" s="35" t="s">
         <v>102</v>
       </c>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="38"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="36"/>
     </row>
     <row r="10" spans="5:16" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G10" s="40"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41" t="s">
+      <c r="G10" s="13"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="L10" s="43" t="s">
+      <c r="L10" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="44"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="38"/>
     </row>
     <row r="11" spans="5:16" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="45" t="s">
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="15" t="s">
         <v>75</v>
       </c>
       <c r="H11" t="s">
         <v>99</v>
       </c>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46" t="s">
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="L11" s="47" t="s">
+      <c r="L11" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="33"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="28"/>
+      <c r="P11" s="10"/>
     </row>
     <row r="12" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="40"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41" t="s">
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="13"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="L12" s="43" t="s">
+      <c r="L12" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="M12" s="43"/>
-      <c r="N12" s="43"/>
-      <c r="O12" s="44"/>
-      <c r="P12" s="33"/>
+      <c r="M12" s="37"/>
+      <c r="N12" s="37"/>
+      <c r="O12" s="38"/>
+      <c r="P12" s="10"/>
     </row>
     <row r="13" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="45" t="s">
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="15" t="s">
         <v>96</v>
       </c>
       <c r="H13" t="s">
         <v>127</v>
       </c>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="46" t="s">
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="L13" s="27" t="s">
+      <c r="L13" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="M13" s="27"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="49"/>
-      <c r="P13" s="33"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="10"/>
     </row>
     <row r="14" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="37"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33" t="s">
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="12"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="L14" s="34" t="s">
+      <c r="L14" s="35" t="s">
         <v>107</v>
       </c>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="33"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="36"/>
+      <c r="P14" s="10"/>
     </row>
     <row r="15" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="37"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="36" t="s">
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="12"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="L15" s="34" t="s">
+      <c r="L15" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="33"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="10"/>
     </row>
     <row r="16" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="37"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33" t="s">
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="12"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="L16" s="34" t="s">
+      <c r="L16" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="33"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="10"/>
     </row>
     <row r="17" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="37"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33" t="s">
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="12"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="L17" s="34" t="s">
+      <c r="L17" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="33"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="10"/>
     </row>
     <row r="18" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="37"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33" t="s">
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="12"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="L18" s="34" t="s">
+      <c r="L18" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="M18" s="34"/>
-      <c r="N18" s="34"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="33"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="10"/>
     </row>
     <row r="19" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="37"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33" t="s">
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="12"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="L19" s="34" t="s">
+      <c r="L19" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="33"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="10"/>
     </row>
     <row r="20" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="40"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41" t="s">
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="13"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="L20" s="32" t="s">
+      <c r="L20" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="M20" s="32"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="42"/>
-      <c r="P20" s="33"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="29"/>
+      <c r="O20" s="30"/>
+      <c r="P20" s="10"/>
     </row>
     <row r="21" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="45" t="s">
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="15" t="s">
         <v>125</v>
       </c>
       <c r="H21" t="s">
         <v>123</v>
       </c>
-      <c r="I21" s="46"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46" t="s">
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="L21" s="47" t="s">
+      <c r="L21" s="27" t="s">
         <v>111</v>
       </c>
-      <c r="M21" s="47"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="33"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="10"/>
     </row>
     <row r="22" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="37"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33" t="s">
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="12"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="L22" s="35" t="s">
+      <c r="L22" s="26" t="s">
         <v>112</v>
       </c>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="39"/>
-      <c r="P22" s="33"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="31"/>
+      <c r="P22" s="10"/>
     </row>
     <row r="23" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="37"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="33" t="s">
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="12"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="L23" s="35" t="s">
+      <c r="L23" s="26" t="s">
         <v>113</v>
       </c>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="39"/>
-      <c r="P23" s="33"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="31"/>
+      <c r="P23" s="10"/>
     </row>
     <row r="24" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="40"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41" t="s">
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="13"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="L24" s="32" t="s">
+      <c r="L24" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="M24" s="32"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="33"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="10"/>
     </row>
     <row r="25" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="45" t="s">
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="15" t="s">
         <v>89</v>
       </c>
       <c r="H25" t="s">
         <v>124</v>
       </c>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46" t="s">
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="L25" s="47" t="s">
+      <c r="L25" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="M25" s="47"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="48"/>
-      <c r="P25" s="33"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="28"/>
+      <c r="P25" s="10"/>
     </row>
     <row r="26" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="40"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41" t="s">
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="13"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="L26" s="32" t="s">
+      <c r="L26" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="M26" s="32"/>
-      <c r="N26" s="32"/>
-      <c r="O26" s="42"/>
-      <c r="P26" s="33"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="10"/>
     </row>
     <row r="27" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="37" t="s">
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="12" t="s">
         <v>92</v>
       </c>
       <c r="H27" t="s">
         <v>126</v>
       </c>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33" t="s">
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="L27" s="35" t="s">
+      <c r="L27" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="M27" s="35"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="39"/>
-      <c r="P27" s="33"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="31"/>
+      <c r="P27" s="10"/>
     </row>
     <row r="28" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-      <c r="G28" s="37"/>
-      <c r="I28" s="33"/>
-      <c r="J28" s="33"/>
-      <c r="K28" s="33" t="s">
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="12"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="L28" s="35" t="s">
+      <c r="L28" s="26" t="s">
         <v>121</v>
       </c>
-      <c r="M28" s="35"/>
-      <c r="N28" s="35"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="33"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="10"/>
     </row>
     <row r="29" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="40"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="41" t="s">
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="13"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="L29" s="32" t="s">
+      <c r="L29" s="29" t="s">
         <v>122</v>
       </c>
-      <c r="M29" s="32"/>
-      <c r="N29" s="32"/>
-      <c r="O29" s="42"/>
-      <c r="P29" s="33"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="10"/>
     </row>
     <row r="30" spans="5:16" x14ac:dyDescent="0.3">
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="35"/>
-      <c r="O30" s="35"/>
-      <c r="P30" s="33"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="L30:O30"/>
-    <mergeCell ref="L25:O25"/>
-    <mergeCell ref="L26:O26"/>
-    <mergeCell ref="L27:O27"/>
-    <mergeCell ref="L28:O28"/>
-    <mergeCell ref="L29:O29"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="L23:O23"/>
-    <mergeCell ref="L24:O24"/>
     <mergeCell ref="L7:O7"/>
     <mergeCell ref="L8:O8"/>
     <mergeCell ref="L9:O9"/>
@@ -2255,6 +2951,17 @@
     <mergeCell ref="L15:O15"/>
     <mergeCell ref="L16:O16"/>
     <mergeCell ref="L17:O17"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="L30:O30"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="L26:O26"/>
+    <mergeCell ref="L27:O27"/>
+    <mergeCell ref="L28:O28"/>
+    <mergeCell ref="L29:O29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/설계및정의서/클래스 다이어그램 설명서.xlsx
+++ b/설계및정의서/클래스 다이어그램 설명서.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kindc\OneDrive\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\BitCamp_AR\설계및정의서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668B7536-8F13-4888-A8B6-0CA3B5E2AE52}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4380" yWindow="1470" windowWidth="21600" windowHeight="11055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4380" yWindow="1470" windowWidth="21600" windowHeight="11055"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="189">
   <si>
     <t>클래스 다이어그램</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -685,13 +684,57 @@
   </si>
   <si>
     <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ConditionCheck(string Password,string ReEnterPassword)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동차 정보를 가지고 있는 클래스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MapCreate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵을 생성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">void </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ViewMap(int MapCode):void</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MapSelectLeftButton():int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MapSelectRightButton():int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">void </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateRoomButton(int MapCode):void</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -763,7 +806,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -1217,6 +1260,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1226,7 +1291,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1317,105 +1382,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1470,14 +1436,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1486,18 +1446,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1507,14 +1455,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1522,45 +1524,141 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{8910AACC-32D9-4DC4-B777-59E2E15A8FCC}"/>
+    <cellStyle name="Excel Built-in Normal" xfId="1"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1872,11 +1970,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="E1:M54"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E1:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16:M16"/>
+    <sheetView tabSelected="1" topLeftCell="E22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38:F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1891,51 +1989,51 @@
   <sheetData>
     <row r="1" spans="5:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
+      <c r="F2" s="83"/>
+      <c r="G2" s="83"/>
       <c r="H2" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="5:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="84" t="s">
         <v>111</v>
       </c>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
       <c r="H3" s="17" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="4" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="38"/>
+      <c r="F4" s="87"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="87"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="88"/>
     </row>
     <row r="5" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="41"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="91"/>
     </row>
     <row r="6" spans="5:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E6" s="86" t="s">
+      <c r="E6" s="51" t="s">
         <v>1</v>
       </c>
       <c r="F6" s="6" t="s">
@@ -1950,835 +2048,894 @@
       <c r="I6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="87" t="s">
+      <c r="J6" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="88"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="93"/>
+      <c r="M6" s="94"/>
     </row>
     <row r="7" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E7" s="89" t="s">
+      <c r="E7" s="92" t="s">
         <v>126</v>
       </c>
-      <c r="F7" s="90" t="s">
+      <c r="F7" s="80" t="s">
         <v>118</v>
       </c>
-      <c r="G7" s="91"/>
-      <c r="H7" s="92" t="s">
+      <c r="G7" s="52"/>
+      <c r="H7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="93" t="s">
+      <c r="I7" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="90" t="s">
+      <c r="J7" s="80" t="s">
         <v>117</v>
       </c>
-      <c r="K7" s="90"/>
-      <c r="L7" s="90"/>
-      <c r="M7" s="94"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="81"/>
     </row>
     <row r="8" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E8" s="35"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="63"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="30"/>
       <c r="H8" s="21" t="s">
         <v>8</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="J8" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="95"/>
+      <c r="K8" s="61"/>
+      <c r="L8" s="61"/>
+      <c r="M8" s="74"/>
     </row>
     <row r="9" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E9" s="35"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="63"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="30"/>
       <c r="H9" s="21" t="s">
         <v>8</v>
       </c>
       <c r="I9" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="34" t="s">
+      <c r="J9" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="95"/>
+      <c r="K9" s="61"/>
+      <c r="L9" s="61"/>
+      <c r="M9" s="74"/>
     </row>
     <row r="10" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E10" s="35"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="63"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="30"/>
       <c r="H10" s="21" t="s">
         <v>9</v>
       </c>
       <c r="I10" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="34" t="s">
+      <c r="J10" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="95"/>
+      <c r="K10" s="61"/>
+      <c r="L10" s="61"/>
+      <c r="M10" s="74"/>
     </row>
     <row r="11" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E11" s="35"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="63"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="30"/>
       <c r="H11" s="21"/>
       <c r="I11" s="15"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="95"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="61"/>
+      <c r="M11" s="74"/>
     </row>
     <row r="12" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E12" s="35" t="s">
+      <c r="E12" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="34" t="s">
+      <c r="F12" s="61" t="s">
         <v>119</v>
       </c>
-      <c r="G12" s="63"/>
+      <c r="G12" s="30"/>
       <c r="H12" s="21" t="s">
         <v>7</v>
       </c>
       <c r="I12" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="J12" s="34" t="s">
+      <c r="J12" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="95"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="61"/>
+      <c r="M12" s="74"/>
     </row>
     <row r="13" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E13" s="35"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="63"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="30"/>
       <c r="H13" s="21" t="s">
         <v>8</v>
       </c>
       <c r="I13" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="J13" s="34" t="s">
+      <c r="J13" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="K13" s="34"/>
-      <c r="L13" s="34"/>
-      <c r="M13" s="95"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="74"/>
     </row>
     <row r="14" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E14" s="35"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="63"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="30"/>
       <c r="H14" s="21" t="s">
         <v>8</v>
       </c>
       <c r="I14" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="J14" s="34" t="s">
+      <c r="J14" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="95"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="74"/>
     </row>
     <row r="15" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E15" s="35"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="63"/>
+      <c r="E15" s="78"/>
+      <c r="F15" s="61"/>
+      <c r="G15" s="30"/>
       <c r="H15" s="21" t="s">
         <v>20</v>
       </c>
       <c r="I15" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="J15" s="34" t="s">
+      <c r="J15" s="61" t="s">
         <v>28</v>
       </c>
-      <c r="K15" s="34"/>
-      <c r="L15" s="34"/>
-      <c r="M15" s="95"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="74"/>
     </row>
     <row r="16" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E16" s="62"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="61"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="96"/>
+      <c r="I16" s="96"/>
+      <c r="J16" s="96"/>
+      <c r="K16" s="96"/>
+      <c r="L16" s="96"/>
+      <c r="M16" s="97"/>
     </row>
     <row r="17" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E17" s="35" t="s">
+      <c r="E17" s="78" t="s">
         <v>113</v>
       </c>
-      <c r="F17" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="G17" s="63"/>
+      <c r="F17" s="61" t="s">
+        <v>179</v>
+      </c>
+      <c r="G17" s="30"/>
       <c r="H17" s="21" t="s">
         <v>9</v>
       </c>
       <c r="I17" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="J17" s="34" t="s">
+      <c r="J17" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="95"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="74"/>
     </row>
     <row r="18" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E18" s="35"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="63"/>
+      <c r="E18" s="78"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="30"/>
       <c r="H18" s="4" t="s">
         <v>9</v>
       </c>
       <c r="I18" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="J18" s="34" t="s">
+      <c r="J18" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="95"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="74"/>
     </row>
     <row r="19" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E19" s="35"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="63"/>
+      <c r="E19" s="78"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="30"/>
       <c r="H19" s="21" t="s">
         <v>9</v>
       </c>
       <c r="I19" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="J19" s="34" t="s">
+      <c r="J19" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="95"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="74"/>
     </row>
     <row r="20" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E20" s="62"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="61"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="96"/>
+      <c r="G20" s="96"/>
+      <c r="H20" s="96"/>
+      <c r="I20" s="96"/>
+      <c r="J20" s="96"/>
+      <c r="K20" s="96"/>
+      <c r="L20" s="96"/>
+      <c r="M20" s="97"/>
     </row>
     <row r="21" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E21" s="35" t="s">
+      <c r="E21" s="78" t="s">
         <v>112</v>
       </c>
-      <c r="F21" s="34" t="s">
+      <c r="F21" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="G21" s="63"/>
+      <c r="G21" s="30"/>
       <c r="H21" s="21" t="s">
         <v>7</v>
       </c>
       <c r="I21" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="J21" s="34" t="s">
+      <c r="J21" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="95"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="74"/>
     </row>
     <row r="22" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E22" s="35"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="63"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="61"/>
+      <c r="G22" s="30"/>
       <c r="H22" s="4" t="s">
         <v>9</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J22" s="34" t="s">
+      <c r="J22" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="95"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="74"/>
     </row>
     <row r="23" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E23" s="35"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="63"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="61"/>
+      <c r="G23" s="30"/>
       <c r="H23" s="21" t="s">
         <v>7</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="J23" s="34" t="s">
+      <c r="J23" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="95"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="74"/>
     </row>
     <row r="24" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E24" s="35"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="63"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="30"/>
       <c r="H24" s="21" t="s">
         <v>9</v>
       </c>
       <c r="I24" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="J24" s="34" t="s">
+      <c r="J24" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="95"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="61"/>
+      <c r="M24" s="74"/>
     </row>
     <row r="25" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E25" s="35"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="63"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="61"/>
+      <c r="G25" s="30"/>
       <c r="H25" s="21" t="s">
         <v>9</v>
       </c>
       <c r="I25" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="J25" s="34" t="s">
+      <c r="J25" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="95"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="74"/>
     </row>
     <row r="26" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E26" s="35"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="63"/>
+      <c r="E26" s="78"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="30"/>
       <c r="H26" s="4" t="s">
         <v>9</v>
       </c>
       <c r="I26" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="J26" s="34" t="s">
+      <c r="J26" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="95"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="74"/>
     </row>
     <row r="27" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E27" s="35"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="63"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="61"/>
+      <c r="G27" s="30"/>
       <c r="H27" s="4" t="s">
         <v>9</v>
       </c>
       <c r="I27" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="J27" s="34" t="s">
+      <c r="J27" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="95"/>
+      <c r="K27" s="61"/>
+      <c r="L27" s="61"/>
+      <c r="M27" s="74"/>
     </row>
     <row r="28" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E28" s="105"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="45"/>
-      <c r="J28" s="45"/>
-      <c r="K28" s="45"/>
-      <c r="L28" s="45"/>
-      <c r="M28" s="107"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="67"/>
+      <c r="L28" s="67"/>
+      <c r="M28" s="68"/>
     </row>
     <row r="29" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E29" s="106"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="108"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="47"/>
-      <c r="K29" s="47"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="109"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="70"/>
+      <c r="M29" s="71"/>
     </row>
     <row r="30" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E30" s="35" t="s">
+      <c r="E30" s="78" t="s">
         <v>114</v>
       </c>
-      <c r="F30" s="34" t="s">
+      <c r="F30" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="G30" s="63"/>
+      <c r="G30" s="30"/>
       <c r="H30" s="21" t="s">
         <v>9</v>
       </c>
       <c r="I30" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="J30" s="34" t="s">
+      <c r="J30" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="K30" s="34"/>
-      <c r="L30" s="34"/>
-      <c r="M30" s="95"/>
+      <c r="K30" s="61"/>
+      <c r="L30" s="61"/>
+      <c r="M30" s="74"/>
     </row>
     <row r="31" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E31" s="35"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="63"/>
+      <c r="E31" s="78"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="30"/>
       <c r="H31" s="21" t="s">
         <v>9</v>
       </c>
       <c r="I31" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="J31" s="34" t="s">
+      <c r="J31" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="95"/>
+      <c r="K31" s="61"/>
+      <c r="L31" s="61"/>
+      <c r="M31" s="74"/>
     </row>
     <row r="32" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E32" s="96" t="s">
+      <c r="E32" s="72" t="s">
         <v>127</v>
       </c>
-      <c r="F32" s="81" t="s">
+      <c r="F32" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="G32" s="82"/>
+      <c r="G32" s="48"/>
       <c r="H32" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="I32" s="82" t="s">
+      <c r="I32" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="J32" s="83" t="s">
+      <c r="J32" s="75" t="s">
         <v>130</v>
       </c>
-      <c r="K32" s="83"/>
-      <c r="L32" s="83"/>
-      <c r="M32" s="97"/>
+      <c r="K32" s="75"/>
+      <c r="L32" s="75"/>
+      <c r="M32" s="76"/>
     </row>
     <row r="33" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E33" s="96"/>
-      <c r="F33" s="81"/>
-      <c r="G33" s="82"/>
-      <c r="H33" s="103" t="s">
+      <c r="E33" s="72"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="48"/>
+      <c r="H33" s="56" t="s">
         <v>176</v>
       </c>
-      <c r="I33" s="82" t="s">
+      <c r="I33" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="J33" s="83" t="s">
+      <c r="J33" s="75" t="s">
         <v>132</v>
       </c>
-      <c r="K33" s="83"/>
-      <c r="L33" s="83"/>
-      <c r="M33" s="97"/>
+      <c r="K33" s="75"/>
+      <c r="L33" s="75"/>
+      <c r="M33" s="76"/>
     </row>
     <row r="34" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E34" s="96"/>
-      <c r="F34" s="81"/>
-      <c r="G34" s="82"/>
+      <c r="E34" s="72"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="48"/>
       <c r="H34" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="I34" s="82" t="s">
+      <c r="I34" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="J34" s="83" t="s">
+      <c r="J34" s="75" t="s">
         <v>134</v>
       </c>
-      <c r="K34" s="83"/>
-      <c r="L34" s="83"/>
-      <c r="M34" s="97"/>
+      <c r="K34" s="75"/>
+      <c r="L34" s="75"/>
+      <c r="M34" s="76"/>
     </row>
     <row r="35" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E35" s="96" t="s">
+      <c r="E35" s="72" t="s">
         <v>135</v>
       </c>
-      <c r="F35" s="81" t="s">
+      <c r="F35" s="59" t="s">
         <v>136</v>
       </c>
-      <c r="G35" s="82"/>
-      <c r="H35" s="103" t="s">
+      <c r="G35" s="48"/>
+      <c r="H35" s="56" t="s">
         <v>176</v>
       </c>
-      <c r="I35" s="82" t="s">
+      <c r="I35" s="48" t="s">
         <v>137</v>
       </c>
-      <c r="J35" s="81" t="s">
+      <c r="J35" s="59" t="s">
         <v>138</v>
       </c>
-      <c r="K35" s="81"/>
-      <c r="L35" s="81"/>
-      <c r="M35" s="98"/>
+      <c r="K35" s="59"/>
+      <c r="L35" s="59"/>
+      <c r="M35" s="77"/>
     </row>
     <row r="36" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E36" s="96"/>
-      <c r="F36" s="81"/>
-      <c r="G36" s="82"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="48"/>
       <c r="H36" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="I36" s="82" t="s">
+      <c r="I36" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="J36" s="83" t="s">
+      <c r="J36" s="75" t="s">
         <v>140</v>
       </c>
-      <c r="K36" s="83"/>
-      <c r="L36" s="83"/>
-      <c r="M36" s="97"/>
+      <c r="K36" s="75"/>
+      <c r="L36" s="75"/>
+      <c r="M36" s="76"/>
     </row>
     <row r="37" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E37" s="96"/>
-      <c r="F37" s="81"/>
-      <c r="G37" s="84"/>
-      <c r="H37" s="104" t="s">
+      <c r="E37" s="72"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="57" t="s">
         <v>176</v>
       </c>
-      <c r="I37" s="82" t="s">
+      <c r="I37" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="J37" s="81" t="s">
+      <c r="J37" s="59" t="s">
         <v>142</v>
       </c>
-      <c r="K37" s="81"/>
-      <c r="L37" s="81"/>
-      <c r="M37" s="98"/>
+      <c r="K37" s="59"/>
+      <c r="L37" s="59"/>
+      <c r="M37" s="77"/>
     </row>
     <row r="38" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E38" s="96" t="s">
+      <c r="E38" s="72" t="s">
         <v>143</v>
       </c>
-      <c r="F38" s="81" t="s">
+      <c r="F38" s="59" t="s">
         <v>144</v>
       </c>
-      <c r="G38" s="82"/>
+      <c r="G38" s="48"/>
       <c r="H38" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="I38" s="82" t="s">
+      <c r="I38" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="J38" s="83" t="s">
+      <c r="J38" s="75" t="s">
         <v>145</v>
       </c>
-      <c r="K38" s="83"/>
-      <c r="L38" s="83"/>
-      <c r="M38" s="97"/>
+      <c r="K38" s="75"/>
+      <c r="L38" s="75"/>
+      <c r="M38" s="76"/>
     </row>
     <row r="39" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E39" s="96"/>
-      <c r="F39" s="81"/>
-      <c r="G39" s="82"/>
+      <c r="E39" s="72"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="48"/>
       <c r="H39" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="I39" s="82" t="s">
+      <c r="I39" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="J39" s="83" t="s">
+      <c r="J39" s="75" t="s">
         <v>147</v>
       </c>
-      <c r="K39" s="83"/>
-      <c r="L39" s="83"/>
-      <c r="M39" s="97"/>
+      <c r="K39" s="75"/>
+      <c r="L39" s="75"/>
+      <c r="M39" s="76"/>
     </row>
     <row r="40" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E40" s="96"/>
-      <c r="F40" s="81"/>
-      <c r="G40" s="82"/>
-      <c r="H40" s="103" t="s">
+      <c r="E40" s="72"/>
+      <c r="F40" s="59"/>
+      <c r="G40" s="48"/>
+      <c r="H40" s="56" t="s">
         <v>177</v>
       </c>
-      <c r="I40" s="85" t="s">
+      <c r="I40" s="50" t="s">
         <v>148</v>
       </c>
-      <c r="J40" s="83" t="s">
+      <c r="J40" s="75" t="s">
         <v>149</v>
       </c>
-      <c r="K40" s="83"/>
-      <c r="L40" s="83"/>
-      <c r="M40" s="97"/>
+      <c r="K40" s="75"/>
+      <c r="L40" s="75"/>
+      <c r="M40" s="76"/>
     </row>
     <row r="41" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E41" s="96"/>
-      <c r="F41" s="81"/>
-      <c r="G41" s="82"/>
+      <c r="E41" s="72"/>
+      <c r="F41" s="59"/>
+      <c r="G41" s="48"/>
       <c r="H41" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="I41" s="82" t="s">
+      <c r="I41" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="J41" s="83" t="s">
+      <c r="J41" s="75" t="s">
         <v>151</v>
       </c>
-      <c r="K41" s="83"/>
-      <c r="L41" s="83"/>
-      <c r="M41" s="97"/>
+      <c r="K41" s="75"/>
+      <c r="L41" s="75"/>
+      <c r="M41" s="76"/>
     </row>
     <row r="42" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E42" s="96"/>
-      <c r="F42" s="81"/>
-      <c r="G42" s="82"/>
+      <c r="E42" s="72"/>
+      <c r="F42" s="59"/>
+      <c r="G42" s="48"/>
       <c r="H42" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="I42" s="82" t="s">
+      <c r="I42" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="J42" s="83" t="s">
+      <c r="J42" s="75" t="s">
         <v>153</v>
       </c>
-      <c r="K42" s="83"/>
-      <c r="L42" s="83"/>
-      <c r="M42" s="97"/>
+      <c r="K42" s="75"/>
+      <c r="L42" s="75"/>
+      <c r="M42" s="76"/>
     </row>
     <row r="43" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E43" s="96"/>
-      <c r="F43" s="81"/>
-      <c r="G43" s="82"/>
+      <c r="E43" s="72"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="48"/>
       <c r="H43" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="I43" s="82" t="s">
+      <c r="I43" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="J43" s="83" t="s">
+      <c r="J43" s="75" t="s">
         <v>155</v>
       </c>
-      <c r="K43" s="83"/>
-      <c r="L43" s="83"/>
-      <c r="M43" s="97"/>
+      <c r="K43" s="75"/>
+      <c r="L43" s="75"/>
+      <c r="M43" s="76"/>
     </row>
     <row r="44" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E44" s="96"/>
-      <c r="F44" s="81"/>
-      <c r="G44" s="82"/>
+      <c r="E44" s="72"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="48"/>
       <c r="H44" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="I44" s="82" t="s">
+      <c r="I44" s="48" t="s">
         <v>156</v>
       </c>
-      <c r="J44" s="83" t="s">
+      <c r="J44" s="75" t="s">
         <v>157</v>
       </c>
-      <c r="K44" s="83"/>
-      <c r="L44" s="83"/>
-      <c r="M44" s="97"/>
+      <c r="K44" s="75"/>
+      <c r="L44" s="75"/>
+      <c r="M44" s="76"/>
     </row>
     <row r="45" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E45" s="96"/>
-      <c r="F45" s="81"/>
-      <c r="G45" s="82"/>
-      <c r="H45" s="103" t="s">
+      <c r="E45" s="72"/>
+      <c r="F45" s="59"/>
+      <c r="G45" s="48"/>
+      <c r="H45" s="56" t="s">
         <v>176</v>
       </c>
-      <c r="I45" s="82" t="s">
+      <c r="I45" s="48" t="s">
         <v>158</v>
       </c>
-      <c r="J45" s="81" t="s">
+      <c r="J45" s="59" t="s">
         <v>159</v>
       </c>
-      <c r="K45" s="81"/>
-      <c r="L45" s="81"/>
-      <c r="M45" s="98"/>
+      <c r="K45" s="59"/>
+      <c r="L45" s="59"/>
+      <c r="M45" s="77"/>
     </row>
     <row r="46" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E46" s="96"/>
-      <c r="F46" s="81"/>
-      <c r="G46" s="82"/>
+      <c r="E46" s="72"/>
+      <c r="F46" s="59"/>
+      <c r="G46" s="48"/>
       <c r="H46" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="I46" s="82" t="s">
+      <c r="I46" s="48" t="s">
         <v>160</v>
       </c>
-      <c r="J46" s="81" t="s">
+      <c r="J46" s="59" t="s">
         <v>161</v>
       </c>
-      <c r="K46" s="81"/>
-      <c r="L46" s="81"/>
-      <c r="M46" s="98"/>
+      <c r="K46" s="59"/>
+      <c r="L46" s="59"/>
+      <c r="M46" s="77"/>
     </row>
     <row r="47" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E47" s="96"/>
-      <c r="F47" s="81"/>
-      <c r="G47" s="82"/>
+      <c r="E47" s="72"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="48"/>
       <c r="H47" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="I47" s="82" t="s">
+      <c r="I47" s="48" t="s">
         <v>162</v>
       </c>
-      <c r="J47" s="81" t="s">
+      <c r="J47" s="59" t="s">
         <v>163</v>
       </c>
-      <c r="K47" s="81"/>
-      <c r="L47" s="81"/>
-      <c r="M47" s="98"/>
+      <c r="K47" s="59"/>
+      <c r="L47" s="59"/>
+      <c r="M47" s="77"/>
     </row>
     <row r="48" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E48" s="96"/>
-      <c r="F48" s="81"/>
-      <c r="G48" s="82"/>
+      <c r="E48" s="72"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="48"/>
       <c r="H48" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="I48" s="82" t="s">
+      <c r="I48" s="48" t="s">
         <v>164</v>
       </c>
-      <c r="J48" s="81" t="s">
+      <c r="J48" s="59" t="s">
         <v>165</v>
       </c>
-      <c r="K48" s="81"/>
-      <c r="L48" s="81"/>
-      <c r="M48" s="98"/>
+      <c r="K48" s="59"/>
+      <c r="L48" s="59"/>
+      <c r="M48" s="77"/>
     </row>
     <row r="49" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E49" s="96"/>
-      <c r="F49" s="81"/>
-      <c r="G49" s="82"/>
+      <c r="E49" s="72"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="48"/>
       <c r="H49" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="I49" s="82" t="s">
+      <c r="I49" s="48" t="s">
         <v>166</v>
       </c>
-      <c r="J49" s="81" t="s">
+      <c r="J49" s="59" t="s">
         <v>167</v>
       </c>
-      <c r="K49" s="81"/>
-      <c r="L49" s="81"/>
-      <c r="M49" s="98"/>
+      <c r="K49" s="59"/>
+      <c r="L49" s="59"/>
+      <c r="M49" s="77"/>
     </row>
     <row r="50" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E50" s="96" t="s">
+      <c r="E50" s="72" t="s">
         <v>168</v>
       </c>
-      <c r="F50" s="81" t="s">
+      <c r="F50" s="59" t="s">
         <v>169</v>
       </c>
-      <c r="G50" s="82"/>
+      <c r="G50" s="48"/>
       <c r="H50" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="I50" s="82" t="s">
+      <c r="I50" s="48" t="s">
         <v>170</v>
       </c>
-      <c r="J50" s="81" t="s">
+      <c r="J50" s="59" t="s">
         <v>171</v>
       </c>
-      <c r="K50" s="81"/>
-      <c r="L50" s="81"/>
-      <c r="M50" s="98"/>
+      <c r="K50" s="59"/>
+      <c r="L50" s="59"/>
+      <c r="M50" s="77"/>
     </row>
     <row r="51" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E51" s="96"/>
-      <c r="F51" s="81"/>
-      <c r="G51" s="82"/>
+      <c r="E51" s="72"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="48"/>
       <c r="H51" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="I51" s="82" t="s">
+      <c r="I51" s="48" t="s">
         <v>172</v>
       </c>
-      <c r="J51" s="81" t="s">
+      <c r="J51" s="59" t="s">
         <v>173</v>
       </c>
-      <c r="K51" s="81"/>
-      <c r="L51" s="81"/>
-      <c r="M51" s="98"/>
+      <c r="K51" s="59"/>
+      <c r="L51" s="59"/>
+      <c r="M51" s="77"/>
     </row>
     <row r="52" spans="5:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E52" s="99"/>
-      <c r="F52" s="100"/>
-      <c r="G52" s="101"/>
-      <c r="H52" s="110" t="s">
-        <v>9</v>
-      </c>
-      <c r="I52" s="101" t="s">
+      <c r="E52" s="73"/>
+      <c r="F52" s="118"/>
+      <c r="G52" s="55"/>
+      <c r="H52" s="58" t="s">
+        <v>9</v>
+      </c>
+      <c r="I52" s="55" t="s">
         <v>174</v>
       </c>
-      <c r="J52" s="100" t="s">
+      <c r="J52" s="60" t="s">
         <v>175</v>
       </c>
-      <c r="K52" s="100"/>
-      <c r="L52" s="100"/>
-      <c r="M52" s="102"/>
+      <c r="K52" s="60"/>
+      <c r="L52" s="60"/>
+      <c r="M52" s="79"/>
     </row>
     <row r="53" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E53" s="80"/>
-      <c r="F53" s="80"/>
-      <c r="G53" s="80"/>
-      <c r="H53" s="7"/>
-      <c r="I53" s="7"/>
-      <c r="J53" s="80"/>
-      <c r="K53" s="80"/>
-      <c r="L53" s="80"/>
-      <c r="M53" s="80"/>
+      <c r="E53" s="112" t="s">
+        <v>180</v>
+      </c>
+      <c r="F53" s="119" t="s">
+        <v>181</v>
+      </c>
+      <c r="G53" s="113"/>
+      <c r="H53" s="114" t="s">
+        <v>182</v>
+      </c>
+      <c r="I53" s="115" t="s">
+        <v>183</v>
+      </c>
+      <c r="J53" s="113"/>
+      <c r="K53" s="47"/>
+      <c r="L53" s="47"/>
+      <c r="M53" s="47"/>
     </row>
     <row r="54" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E54" s="80"/>
-      <c r="F54" s="80"/>
-      <c r="G54" s="80"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="80"/>
-      <c r="K54" s="80"/>
-      <c r="L54" s="80"/>
-      <c r="M54" s="80"/>
+      <c r="E54" s="107"/>
+      <c r="F54" s="120"/>
+      <c r="G54" s="47"/>
+      <c r="H54" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="I54" s="111" t="s">
+        <v>185</v>
+      </c>
+      <c r="J54" s="47"/>
+      <c r="K54" s="47"/>
+      <c r="L54" s="47"/>
+      <c r="M54" s="47"/>
+    </row>
+    <row r="55" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E55" s="107"/>
+      <c r="F55" s="120"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="I55" s="111" t="s">
+        <v>186</v>
+      </c>
+      <c r="J55" s="7"/>
+    </row>
+    <row r="56" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E56" s="70"/>
+      <c r="F56" s="121"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="116" t="s">
+        <v>187</v>
+      </c>
+      <c r="I56" s="117" t="s">
+        <v>188</v>
+      </c>
+      <c r="J56" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="68">
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="F38:F49"/>
-    <mergeCell ref="F35:F37"/>
-    <mergeCell ref="F32:F34"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="F21:F27"/>
-    <mergeCell ref="E28:F29"/>
-    <mergeCell ref="G28:M29"/>
-    <mergeCell ref="E35:E37"/>
-    <mergeCell ref="E38:E49"/>
+  <mergeCells count="70">
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="E16:M16"/>
+    <mergeCell ref="E20:M20"/>
+    <mergeCell ref="E53:E56"/>
+    <mergeCell ref="F53:F56"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="E4:M5"/>
+    <mergeCell ref="E7:E11"/>
+    <mergeCell ref="F7:F11"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="J21:M21"/>
     <mergeCell ref="E50:E52"/>
     <mergeCell ref="J24:M24"/>
     <mergeCell ref="J33:M33"/>
@@ -2795,6 +2952,11 @@
     <mergeCell ref="J50:M50"/>
     <mergeCell ref="J51:M51"/>
     <mergeCell ref="J52:M52"/>
+    <mergeCell ref="F21:F27"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="G28:M29"/>
+    <mergeCell ref="E35:E37"/>
+    <mergeCell ref="E38:E49"/>
     <mergeCell ref="J43:M43"/>
     <mergeCell ref="J44:M44"/>
     <mergeCell ref="J45:M45"/>
@@ -2806,37 +2968,11 @@
     <mergeCell ref="J41:M41"/>
     <mergeCell ref="J42:M42"/>
     <mergeCell ref="J36:M36"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="E4:M5"/>
-    <mergeCell ref="E7:E11"/>
-    <mergeCell ref="F7:F11"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="E16:M16"/>
-    <mergeCell ref="E20:M20"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="F38:F49"/>
+    <mergeCell ref="F35:F37"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="F30:F31"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2845,10 +2981,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E7:P30"/>
   <sheetViews>
-    <sheetView topLeftCell="E7" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="F16" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -2878,12 +3014,12 @@
       <c r="K7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="L7" s="50" t="s">
+      <c r="L7" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="52"/>
+      <c r="M7" s="99"/>
+      <c r="N7" s="99"/>
+      <c r="O7" s="100"/>
     </row>
     <row r="8" spans="5:16" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G8" s="9" t="s">
@@ -2897,12 +3033,12 @@
       <c r="K8" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="L8" s="53" t="s">
+      <c r="L8" s="101" t="s">
         <v>84</v>
       </c>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="54"/>
+      <c r="M8" s="101"/>
+      <c r="N8" s="101"/>
+      <c r="O8" s="102"/>
     </row>
     <row r="9" spans="5:16" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G9" s="9"/>
@@ -2911,12 +3047,12 @@
       <c r="K9" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="L9" s="53" t="s">
+      <c r="L9" s="101" t="s">
         <v>85</v>
       </c>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="54"/>
+      <c r="M9" s="101"/>
+      <c r="N9" s="101"/>
+      <c r="O9" s="102"/>
     </row>
     <row r="10" spans="5:16" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G10" s="10"/>
@@ -2925,12 +3061,12 @@
       <c r="K10" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="L10" s="55" t="s">
+      <c r="L10" s="103" t="s">
         <v>86</v>
       </c>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="56"/>
+      <c r="M10" s="103"/>
+      <c r="N10" s="103"/>
+      <c r="O10" s="104"/>
     </row>
     <row r="11" spans="5:16" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E11" s="7"/>
@@ -2946,12 +3082,12 @@
       <c r="K11" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="L11" s="45" t="s">
+      <c r="L11" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="M11" s="45"/>
-      <c r="N11" s="45"/>
-      <c r="O11" s="46"/>
+      <c r="M11" s="67"/>
+      <c r="N11" s="67"/>
+      <c r="O11" s="63"/>
       <c r="P11" s="7"/>
     </row>
     <row r="12" spans="5:16" x14ac:dyDescent="0.3">
@@ -2963,12 +3099,12 @@
       <c r="K12" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="L12" s="55" t="s">
+      <c r="L12" s="103" t="s">
         <v>88</v>
       </c>
-      <c r="M12" s="55"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="56"/>
+      <c r="M12" s="103"/>
+      <c r="N12" s="103"/>
+      <c r="O12" s="104"/>
       <c r="P12" s="7"/>
     </row>
     <row r="13" spans="5:16" x14ac:dyDescent="0.3">
@@ -2985,12 +3121,12 @@
       <c r="K13" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="L13" s="57" t="s">
+      <c r="L13" s="105" t="s">
         <v>89</v>
       </c>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="58"/>
+      <c r="M13" s="105"/>
+      <c r="N13" s="105"/>
+      <c r="O13" s="106"/>
       <c r="P13" s="7"/>
     </row>
     <row r="14" spans="5:16" x14ac:dyDescent="0.3">
@@ -3002,12 +3138,12 @@
       <c r="K14" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="L14" s="53" t="s">
+      <c r="L14" s="101" t="s">
         <v>90</v>
       </c>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="54"/>
+      <c r="M14" s="101"/>
+      <c r="N14" s="101"/>
+      <c r="O14" s="102"/>
       <c r="P14" s="7"/>
     </row>
     <row r="15" spans="5:16" x14ac:dyDescent="0.3">
@@ -3019,12 +3155,12 @@
       <c r="K15" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="L15" s="53" t="s">
+      <c r="L15" s="101" t="s">
         <v>97</v>
       </c>
-      <c r="M15" s="53"/>
-      <c r="N15" s="53"/>
-      <c r="O15" s="54"/>
+      <c r="M15" s="101"/>
+      <c r="N15" s="101"/>
+      <c r="O15" s="102"/>
       <c r="P15" s="7"/>
     </row>
     <row r="16" spans="5:16" x14ac:dyDescent="0.3">
@@ -3036,12 +3172,12 @@
       <c r="K16" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="L16" s="53" t="s">
+      <c r="L16" s="101" t="s">
         <v>98</v>
       </c>
-      <c r="M16" s="53"/>
-      <c r="N16" s="53"/>
-      <c r="O16" s="54"/>
+      <c r="M16" s="101"/>
+      <c r="N16" s="101"/>
+      <c r="O16" s="102"/>
       <c r="P16" s="7"/>
     </row>
     <row r="17" spans="5:16" x14ac:dyDescent="0.3">
@@ -3053,12 +3189,12 @@
       <c r="K17" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="L17" s="53" t="s">
+      <c r="L17" s="101" t="s">
         <v>99</v>
       </c>
-      <c r="M17" s="53"/>
-      <c r="N17" s="53"/>
-      <c r="O17" s="54"/>
+      <c r="M17" s="101"/>
+      <c r="N17" s="101"/>
+      <c r="O17" s="102"/>
       <c r="P17" s="7"/>
     </row>
     <row r="18" spans="5:16" x14ac:dyDescent="0.3">
@@ -3070,12 +3206,12 @@
       <c r="K18" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="L18" s="53" t="s">
+      <c r="L18" s="101" t="s">
         <v>91</v>
       </c>
-      <c r="M18" s="53"/>
-      <c r="N18" s="53"/>
-      <c r="O18" s="54"/>
+      <c r="M18" s="101"/>
+      <c r="N18" s="101"/>
+      <c r="O18" s="102"/>
       <c r="P18" s="7"/>
     </row>
     <row r="19" spans="5:16" x14ac:dyDescent="0.3">
@@ -3087,12 +3223,12 @@
       <c r="K19" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="L19" s="53" t="s">
+      <c r="L19" s="101" t="s">
         <v>92</v>
       </c>
-      <c r="M19" s="53"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="54"/>
+      <c r="M19" s="101"/>
+      <c r="N19" s="101"/>
+      <c r="O19" s="102"/>
       <c r="P19" s="7"/>
     </row>
     <row r="20" spans="5:16" x14ac:dyDescent="0.3">
@@ -3104,12 +3240,12 @@
       <c r="K20" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="L20" s="47" t="s">
+      <c r="L20" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="48"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="70"/>
+      <c r="O20" s="65"/>
       <c r="P20" s="7"/>
     </row>
     <row r="21" spans="5:16" x14ac:dyDescent="0.3">
@@ -3126,12 +3262,12 @@
       <c r="K21" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="L21" s="45" t="s">
+      <c r="L21" s="67" t="s">
         <v>94</v>
       </c>
-      <c r="M21" s="45"/>
-      <c r="N21" s="45"/>
-      <c r="O21" s="46"/>
+      <c r="M21" s="67"/>
+      <c r="N21" s="67"/>
+      <c r="O21" s="63"/>
       <c r="P21" s="7"/>
     </row>
     <row r="22" spans="5:16" x14ac:dyDescent="0.3">
@@ -3143,12 +3279,12 @@
       <c r="K22" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="L22" s="44" t="s">
+      <c r="L22" s="107" t="s">
         <v>95</v>
       </c>
-      <c r="M22" s="44"/>
-      <c r="N22" s="44"/>
-      <c r="O22" s="49"/>
+      <c r="M22" s="107"/>
+      <c r="N22" s="107"/>
+      <c r="O22" s="108"/>
       <c r="P22" s="7"/>
     </row>
     <row r="23" spans="5:16" x14ac:dyDescent="0.3">
@@ -3160,12 +3296,12 @@
       <c r="K23" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="L23" s="44" t="s">
+      <c r="L23" s="107" t="s">
         <v>96</v>
       </c>
-      <c r="M23" s="44"/>
-      <c r="N23" s="44"/>
-      <c r="O23" s="49"/>
+      <c r="M23" s="107"/>
+      <c r="N23" s="107"/>
+      <c r="O23" s="108"/>
       <c r="P23" s="7"/>
     </row>
     <row r="24" spans="5:16" x14ac:dyDescent="0.3">
@@ -3177,12 +3313,12 @@
       <c r="K24" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="L24" s="47" t="s">
+      <c r="L24" s="70" t="s">
         <v>100</v>
       </c>
-      <c r="M24" s="47"/>
-      <c r="N24" s="47"/>
-      <c r="O24" s="48"/>
+      <c r="M24" s="70"/>
+      <c r="N24" s="70"/>
+      <c r="O24" s="65"/>
       <c r="P24" s="7"/>
     </row>
     <row r="25" spans="5:16" x14ac:dyDescent="0.3">
@@ -3199,12 +3335,12 @@
       <c r="K25" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="L25" s="45" t="s">
+      <c r="L25" s="67" t="s">
         <v>101</v>
       </c>
-      <c r="M25" s="45"/>
-      <c r="N25" s="45"/>
-      <c r="O25" s="46"/>
+      <c r="M25" s="67"/>
+      <c r="N25" s="67"/>
+      <c r="O25" s="63"/>
       <c r="P25" s="7"/>
     </row>
     <row r="26" spans="5:16" x14ac:dyDescent="0.3">
@@ -3216,12 +3352,12 @@
       <c r="K26" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="L26" s="47" t="s">
+      <c r="L26" s="70" t="s">
         <v>102</v>
       </c>
-      <c r="M26" s="47"/>
-      <c r="N26" s="47"/>
-      <c r="O26" s="48"/>
+      <c r="M26" s="70"/>
+      <c r="N26" s="70"/>
+      <c r="O26" s="65"/>
       <c r="P26" s="7"/>
     </row>
     <row r="27" spans="5:16" x14ac:dyDescent="0.3">
@@ -3238,12 +3374,12 @@
       <c r="K27" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="L27" s="44" t="s">
+      <c r="L27" s="107" t="s">
         <v>103</v>
       </c>
-      <c r="M27" s="44"/>
-      <c r="N27" s="44"/>
-      <c r="O27" s="49"/>
+      <c r="M27" s="107"/>
+      <c r="N27" s="107"/>
+      <c r="O27" s="108"/>
       <c r="P27" s="7"/>
     </row>
     <row r="28" spans="5:16" x14ac:dyDescent="0.3">
@@ -3255,12 +3391,12 @@
       <c r="K28" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="L28" s="44" t="s">
+      <c r="L28" s="107" t="s">
         <v>104</v>
       </c>
-      <c r="M28" s="44"/>
-      <c r="N28" s="44"/>
-      <c r="O28" s="49"/>
+      <c r="M28" s="107"/>
+      <c r="N28" s="107"/>
+      <c r="O28" s="108"/>
       <c r="P28" s="7"/>
     </row>
     <row r="29" spans="5:16" x14ac:dyDescent="0.3">
@@ -3272,12 +3408,12 @@
       <c r="K29" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="L29" s="47" t="s">
+      <c r="L29" s="70" t="s">
         <v>105</v>
       </c>
-      <c r="M29" s="47"/>
-      <c r="N29" s="47"/>
-      <c r="O29" s="48"/>
+      <c r="M29" s="70"/>
+      <c r="N29" s="70"/>
+      <c r="O29" s="65"/>
       <c r="P29" s="7"/>
     </row>
     <row r="30" spans="5:16" x14ac:dyDescent="0.3">
@@ -3288,14 +3424,25 @@
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
-      <c r="L30" s="44"/>
-      <c r="M30" s="44"/>
-      <c r="N30" s="44"/>
-      <c r="O30" s="44"/>
+      <c r="L30" s="107"/>
+      <c r="M30" s="107"/>
+      <c r="N30" s="107"/>
+      <c r="O30" s="107"/>
       <c r="P30" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="L30:O30"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="L26:O26"/>
+    <mergeCell ref="L27:O27"/>
+    <mergeCell ref="L28:O28"/>
+    <mergeCell ref="L29:O29"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="L24:O24"/>
     <mergeCell ref="L7:O7"/>
     <mergeCell ref="L8:O8"/>
     <mergeCell ref="L9:O9"/>
@@ -3309,17 +3456,6 @@
     <mergeCell ref="L15:O15"/>
     <mergeCell ref="L16:O16"/>
     <mergeCell ref="L17:O17"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="L23:O23"/>
-    <mergeCell ref="L24:O24"/>
-    <mergeCell ref="L30:O30"/>
-    <mergeCell ref="L25:O25"/>
-    <mergeCell ref="L26:O26"/>
-    <mergeCell ref="L27:O27"/>
-    <mergeCell ref="L28:O28"/>
-    <mergeCell ref="L29:O29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3328,7 +3464,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CDF8D23-091E-4E49-9291-E888295BDC68}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
@@ -3347,48 +3483,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
       <c r="D1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="84" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
       <c r="D2" s="17" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="38"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="88"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="39"/>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="41"/>
+      <c r="A4" s="89"/>
+      <c r="B4" s="90"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="91"/>
     </row>
     <row r="5" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
@@ -3406,293 +3542,293 @@
       <c r="E5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="42" t="s">
+      <c r="F5" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="43"/>
+      <c r="G5" s="109"/>
+      <c r="H5" s="109"/>
+      <c r="I5" s="110"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="33" t="s">
         <v>126</v>
       </c>
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="C6" s="75"/>
+      <c r="C6" s="42"/>
       <c r="D6" s="21" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="63" t="s">
+      <c r="F6" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="72"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="39"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="27"/>
       <c r="B7" s="20"/>
-      <c r="C7" s="76"/>
+      <c r="C7" s="43"/>
       <c r="D7" s="21" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="63" t="s">
+      <c r="F7" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="72"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="39"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="27"/>
       <c r="B8" s="20"/>
-      <c r="C8" s="76"/>
+      <c r="C8" s="43"/>
       <c r="D8" s="21" t="s">
         <v>8</v>
       </c>
       <c r="E8" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="63" t="s">
+      <c r="F8" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="63"/>
-      <c r="H8" s="63"/>
-      <c r="I8" s="72"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="39"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="27"/>
       <c r="B9" s="20"/>
-      <c r="C9" s="76"/>
+      <c r="C9" s="43"/>
       <c r="D9" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="63" t="s">
+      <c r="F9" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="72"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="39"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="26"/>
       <c r="B10" s="28"/>
-      <c r="C10" s="76"/>
+      <c r="C10" s="43"/>
       <c r="D10" s="29"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="66" t="s">
+      <c r="A11" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="31" t="s">
         <v>119</v>
       </c>
-      <c r="C11" s="76"/>
+      <c r="C11" s="43"/>
       <c r="D11" s="21" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="63" t="s">
+      <c r="F11" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="72"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="39"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="27"/>
       <c r="B12" s="20"/>
-      <c r="C12" s="76"/>
+      <c r="C12" s="43"/>
       <c r="D12" s="21" t="s">
         <v>8</v>
       </c>
       <c r="E12" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="63" t="s">
+      <c r="F12" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="72"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="39"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="27"/>
       <c r="B13" s="20"/>
-      <c r="C13" s="76"/>
+      <c r="C13" s="43"/>
       <c r="D13" s="21" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="63" t="s">
+      <c r="F13" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="72"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="39"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="26"/>
       <c r="B14" s="28"/>
-      <c r="C14" s="76"/>
+      <c r="C14" s="43"/>
       <c r="D14" s="21" t="s">
         <v>20</v>
       </c>
       <c r="E14" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="F14" s="63" t="s">
+      <c r="F14" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="72"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="39"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="78"/>
-      <c r="B15" s="79"/>
-      <c r="C15" s="76"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="43"/>
       <c r="D15" s="29"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="63" t="s">
+      <c r="A16" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="B16" s="64" t="s">
+      <c r="B16" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="C16" s="76"/>
+      <c r="C16" s="43"/>
       <c r="D16" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E16" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="F16" s="63" t="s">
+      <c r="F16" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="72"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="39"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="63"/>
+      <c r="A17" s="30"/>
       <c r="B17" s="20"/>
-      <c r="C17" s="76"/>
+      <c r="C17" s="43"/>
       <c r="D17" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F17" s="68" t="s">
+      <c r="F17" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="70"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="37"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="63"/>
+      <c r="A18" s="30"/>
       <c r="B18" s="28"/>
-      <c r="C18" s="76"/>
+      <c r="C18" s="43"/>
       <c r="D18" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="68" t="s">
+      <c r="F18" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="70"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="37"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="78"/>
-      <c r="B19" s="79"/>
-      <c r="C19" s="76"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="43"/>
       <c r="D19" s="29"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="70"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="37"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="63" t="s">
+      <c r="A20" s="30" t="s">
         <v>112</v>
       </c>
-      <c r="B20" s="64" t="s">
+      <c r="B20" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="C20" s="76"/>
+      <c r="C20" s="43"/>
       <c r="D20" s="21" t="s">
         <v>7</v>
       </c>
       <c r="E20" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="68" t="s">
+      <c r="F20" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="G20" s="69"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="70"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="37"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="63"/>
+      <c r="A21" s="30"/>
       <c r="B21" s="20"/>
-      <c r="C21" s="76"/>
+      <c r="C21" s="43"/>
       <c r="D21" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="68" t="s">
+      <c r="F21" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="70"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="37"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="63"/>
+      <c r="A22" s="30"/>
       <c r="B22" s="20"/>
-      <c r="C22" s="76"/>
+      <c r="C22" s="43"/>
       <c r="D22" s="21" t="s">
         <v>7</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="F22" s="68" t="s">
+      <c r="F22" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="G22" s="69"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="70"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="37"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="63"/>
+      <c r="A23" s="30"/>
       <c r="B23" s="20"/>
-      <c r="C23" s="76"/>
+      <c r="C23" s="43"/>
       <c r="D23" s="21" t="s">
         <v>9</v>
       </c>
@@ -3707,9 +3843,9 @@
       <c r="I23" s="24"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="63"/>
+      <c r="A24" s="30"/>
       <c r="B24" s="20"/>
-      <c r="C24" s="76"/>
+      <c r="C24" s="43"/>
       <c r="D24" s="21" t="s">
         <v>9</v>
       </c>
@@ -3724,38 +3860,38 @@
       <c r="I24" s="24"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="63"/>
+      <c r="A25" s="30"/>
       <c r="B25" s="20"/>
-      <c r="C25" s="76"/>
+      <c r="C25" s="43"/>
       <c r="D25" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="68" t="s">
+      <c r="F25" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="70"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="37"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="63"/>
+      <c r="A26" s="30"/>
       <c r="B26" s="28"/>
-      <c r="C26" s="76"/>
+      <c r="C26" s="43"/>
       <c r="D26" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F26" s="68" t="s">
+      <c r="F26" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="G26" s="69"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="70"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="37"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="21" t="s">
@@ -3764,67 +3900,67 @@
       <c r="B27" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="C27" s="76"/>
+      <c r="C27" s="43"/>
       <c r="D27" s="29"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="27"/>
       <c r="B28" s="20"/>
-      <c r="C28" s="76"/>
+      <c r="C28" s="43"/>
       <c r="D28" s="29"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="63" t="s">
+      <c r="A29" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="B29" s="63" t="s">
+      <c r="B29" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="C29" s="76"/>
+      <c r="C29" s="43"/>
       <c r="D29" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E29" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="F29" s="68" t="s">
+      <c r="F29" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="G29" s="69"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="70"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="37"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="63"/>
-      <c r="B30" s="63"/>
-      <c r="C30" s="76"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="43"/>
       <c r="D30" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E30" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="63" t="s">
+      <c r="F30" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="G30" s="63"/>
-      <c r="H30" s="63"/>
-      <c r="I30" s="72"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="39"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="26"/>
       <c r="B31" s="28"/>
-      <c r="C31" s="76"/>
+      <c r="C31" s="43"/>
       <c r="D31" s="29"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="66" t="s">
+      <c r="A32" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="B32" s="64" t="s">
+      <c r="B32" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="C32" s="76"/>
+      <c r="C32" s="43"/>
       <c r="D32" s="21" t="s">
         <v>9</v>
       </c>
@@ -3836,12 +3972,12 @@
       </c>
       <c r="G32" s="16"/>
       <c r="H32" s="16"/>
-      <c r="I32" s="71"/>
+      <c r="I32" s="38"/>
     </row>
     <row r="33" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="27"/>
       <c r="B33" s="20"/>
-      <c r="C33" s="76"/>
+      <c r="C33" s="43"/>
       <c r="D33" s="21" t="s">
         <v>116</v>
       </c>
@@ -3853,12 +3989,12 @@
       </c>
       <c r="G33" s="16"/>
       <c r="H33" s="16"/>
-      <c r="I33" s="71"/>
+      <c r="I33" s="38"/>
     </row>
     <row r="34" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="26"/>
       <c r="B34" s="28"/>
-      <c r="C34" s="76"/>
+      <c r="C34" s="43"/>
       <c r="D34" s="21" t="s">
         <v>9</v>
       </c>
@@ -3870,33 +4006,33 @@
       </c>
       <c r="G34" s="16"/>
       <c r="H34" s="16"/>
-      <c r="I34" s="71"/>
+      <c r="I34" s="38"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="66" t="s">
+      <c r="A35" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="B35" s="64" t="s">
+      <c r="B35" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="C35" s="76"/>
+      <c r="C35" s="43"/>
       <c r="D35" s="21" t="s">
         <v>116</v>
       </c>
       <c r="E35" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="F35" s="63" t="s">
+      <c r="F35" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="G35" s="63"/>
-      <c r="H35" s="63"/>
-      <c r="I35" s="72"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="39"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="27"/>
       <c r="B36" s="20"/>
-      <c r="C36" s="76"/>
+      <c r="C36" s="43"/>
       <c r="D36" s="21" t="s">
         <v>9</v>
       </c>
@@ -3908,12 +4044,12 @@
       </c>
       <c r="G36" s="16"/>
       <c r="H36" s="16"/>
-      <c r="I36" s="71"/>
+      <c r="I36" s="38"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="27"/>
       <c r="B37" s="20"/>
-      <c r="C37" s="76"/>
+      <c r="C37" s="43"/>
       <c r="D37" s="21" t="s">
         <v>9</v>
       </c>
@@ -3925,12 +4061,12 @@
       </c>
       <c r="G37" s="16"/>
       <c r="H37" s="16"/>
-      <c r="I37" s="71"/>
+      <c r="I37" s="38"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="27"/>
       <c r="B38" s="20"/>
-      <c r="C38" s="76"/>
+      <c r="C38" s="43"/>
       <c r="D38" s="21" t="s">
         <v>9</v>
       </c>
@@ -3942,12 +4078,12 @@
       </c>
       <c r="G38" s="16"/>
       <c r="H38" s="16"/>
-      <c r="I38" s="71"/>
+      <c r="I38" s="38"/>
     </row>
     <row r="39" spans="1:9" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="27"/>
       <c r="B39" s="20"/>
-      <c r="C39" s="76"/>
+      <c r="C39" s="43"/>
       <c r="D39" s="21" t="s">
         <v>7</v>
       </c>
@@ -3959,12 +4095,12 @@
       </c>
       <c r="G39" s="16"/>
       <c r="H39" s="16"/>
-      <c r="I39" s="71"/>
+      <c r="I39" s="38"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="27"/>
       <c r="B40" s="20"/>
-      <c r="C40" s="76"/>
+      <c r="C40" s="43"/>
       <c r="D40" s="21" t="s">
         <v>9</v>
       </c>
@@ -3976,12 +4112,12 @@
       </c>
       <c r="G40" s="16"/>
       <c r="H40" s="16"/>
-      <c r="I40" s="71"/>
+      <c r="I40" s="38"/>
     </row>
     <row r="41" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="27"/>
       <c r="B41" s="20"/>
-      <c r="C41" s="76"/>
+      <c r="C41" s="43"/>
       <c r="D41" s="21" t="s">
         <v>9</v>
       </c>
@@ -3993,12 +4129,12 @@
       </c>
       <c r="G41" s="16"/>
       <c r="H41" s="16"/>
-      <c r="I41" s="71"/>
+      <c r="I41" s="38"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="27"/>
       <c r="B42" s="20"/>
-      <c r="C42" s="76"/>
+      <c r="C42" s="43"/>
       <c r="D42" s="21" t="s">
         <v>9</v>
       </c>
@@ -4010,12 +4146,12 @@
       </c>
       <c r="G42" s="16"/>
       <c r="H42" s="16"/>
-      <c r="I42" s="71"/>
+      <c r="I42" s="38"/>
     </row>
     <row r="43" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="27"/>
       <c r="B43" s="20"/>
-      <c r="C43" s="76"/>
+      <c r="C43" s="43"/>
       <c r="D43" s="21" t="s">
         <v>9</v>
       </c>
@@ -4027,177 +4163,177 @@
       </c>
       <c r="G43" s="16"/>
       <c r="H43" s="16"/>
-      <c r="I43" s="71"/>
+      <c r="I43" s="38"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="27"/>
       <c r="B44" s="20"/>
-      <c r="C44" s="76"/>
+      <c r="C44" s="43"/>
       <c r="D44" s="21" t="s">
         <v>116</v>
       </c>
       <c r="E44" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="F44" s="63" t="s">
+      <c r="F44" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="G44" s="63"/>
-      <c r="H44" s="63"/>
-      <c r="I44" s="72"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="39"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="27"/>
       <c r="B45" s="20"/>
-      <c r="C45" s="76"/>
+      <c r="C45" s="43"/>
       <c r="D45" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E45" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="F45" s="63" t="s">
+      <c r="F45" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="G45" s="63"/>
-      <c r="H45" s="63"/>
-      <c r="I45" s="72"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="39"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="27"/>
       <c r="B46" s="20"/>
-      <c r="C46" s="76"/>
+      <c r="C46" s="43"/>
       <c r="D46" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E46" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="F46" s="63" t="s">
+      <c r="F46" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="G46" s="63"/>
-      <c r="H46" s="63"/>
-      <c r="I46" s="72"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="39"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="27"/>
       <c r="B47" s="20"/>
-      <c r="C47" s="76"/>
+      <c r="C47" s="43"/>
       <c r="D47" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E47" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="F47" s="63" t="s">
+      <c r="F47" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="G47" s="63"/>
-      <c r="H47" s="63"/>
-      <c r="I47" s="72"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="39"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="27"/>
       <c r="B48" s="20"/>
-      <c r="C48" s="76"/>
+      <c r="C48" s="43"/>
       <c r="D48" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E48" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="F48" s="63" t="s">
+      <c r="F48" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="G48" s="63"/>
-      <c r="H48" s="63"/>
-      <c r="I48" s="72"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="39"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="27"/>
       <c r="B49" s="20"/>
-      <c r="C49" s="76"/>
+      <c r="C49" s="43"/>
       <c r="D49" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E49" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="F49" s="63" t="s">
+      <c r="F49" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="G49" s="63"/>
-      <c r="H49" s="63"/>
-      <c r="I49" s="72"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="39"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="27"/>
       <c r="B50" s="20"/>
-      <c r="C50" s="76"/>
+      <c r="C50" s="43"/>
       <c r="D50" s="21" t="s">
         <v>116</v>
       </c>
       <c r="E50" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="F50" s="63" t="s">
+      <c r="F50" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="G50" s="63"/>
-      <c r="H50" s="63"/>
-      <c r="I50" s="72"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="39"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="27"/>
       <c r="B51" s="20"/>
-      <c r="C51" s="76"/>
+      <c r="C51" s="43"/>
       <c r="D51" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E51" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="F51" s="63" t="s">
+      <c r="F51" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="G51" s="63"/>
-      <c r="H51" s="63"/>
-      <c r="I51" s="72"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="39"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="27"/>
       <c r="B52" s="20"/>
-      <c r="C52" s="76"/>
+      <c r="C52" s="43"/>
       <c r="D52" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E52" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="F52" s="63" t="s">
+      <c r="F52" s="30" t="s">
         <v>104</v>
       </c>
-      <c r="G52" s="63"/>
-      <c r="H52" s="63"/>
-      <c r="I52" s="72"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="39"/>
     </row>
     <row r="53" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="67"/>
-      <c r="B53" s="65"/>
-      <c r="C53" s="77"/>
+      <c r="A53" s="34"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="44"/>
       <c r="D53" s="21" t="s">
         <v>9</v>
       </c>
       <c r="E53" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="F53" s="73" t="s">
+      <c r="F53" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="G53" s="73"/>
-      <c r="H53" s="73"/>
-      <c r="I53" s="74"/>
+      <c r="G53" s="40"/>
+      <c r="H53" s="40"/>
+      <c r="I53" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/설계및정의서/클래스 다이어그램 설명서.xlsx
+++ b/설계및정의서/클래스 다이어그램 설명서.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\BitCamp_AR\설계및정의서\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="4380" yWindow="1470" windowWidth="21600" windowHeight="11055"/>
   </bookViews>
@@ -26,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="192">
   <si>
     <t>클래스 다이어그램</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -581,9 +576,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>게임중에 화면에 보여지는 UI관리하는 매니져</t>
-  </si>
-  <si>
     <t>트랙수 표시</t>
   </si>
   <si>
@@ -728,13 +720,29 @@
   </si>
   <si>
     <t>CreateRoomButton(int MapCode):void</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserManager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 및 로그인에 관련된 매니저</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 및 로그인의 정보를 전달해줌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임중에 화면에 보여지는 UI관리하는 매니져</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1291,7 +1299,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1467,52 +1475,112 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1521,67 +1589,49 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1611,49 +1661,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="38" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1717,7 +1740,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1769,7 +1792,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1963,7 +1986,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1973,8 +1996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E1:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38:F49"/>
+    <sheetView tabSelected="1" topLeftCell="E19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1989,48 +2012,48 @@
   <sheetData>
     <row r="1" spans="5:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E2" s="82" t="s">
+      <c r="E2" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
       <c r="H2" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="3" spans="5:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E3" s="84" t="s">
+      <c r="E3" s="79" t="s">
         <v>111</v>
       </c>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
       <c r="H3" s="17" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="4" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E4" s="86" t="s">
+      <c r="E4" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="87"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="88"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="83"/>
     </row>
     <row r="5" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E5" s="89"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="90"/>
-      <c r="M5" s="91"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="86"/>
     </row>
     <row r="6" spans="5:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E6" s="51" t="s">
@@ -2048,19 +2071,19 @@
       <c r="I6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="93" t="s">
+      <c r="J6" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="93"/>
-      <c r="L6" s="93"/>
-      <c r="M6" s="94"/>
+      <c r="K6" s="89"/>
+      <c r="L6" s="89"/>
+      <c r="M6" s="90"/>
     </row>
     <row r="7" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E7" s="92" t="s">
+      <c r="E7" s="87" t="s">
         <v>126</v>
       </c>
-      <c r="F7" s="80" t="s">
-        <v>118</v>
+      <c r="F7" s="88" t="s">
+        <v>190</v>
       </c>
       <c r="G7" s="52"/>
       <c r="H7" s="53" t="s">
@@ -2069,33 +2092,33 @@
       <c r="I7" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="J7" s="80" t="s">
+      <c r="J7" s="88" t="s">
         <v>117</v>
       </c>
-      <c r="K7" s="80"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="81"/>
+      <c r="K7" s="88"/>
+      <c r="L7" s="88"/>
+      <c r="M7" s="94"/>
     </row>
     <row r="8" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E8" s="78"/>
-      <c r="F8" s="61"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="67"/>
       <c r="G8" s="30"/>
       <c r="H8" s="21" t="s">
         <v>8</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>178</v>
-      </c>
-      <c r="J8" s="61" t="s">
+        <v>177</v>
+      </c>
+      <c r="J8" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="61"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="74"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
+      <c r="M8" s="91"/>
     </row>
     <row r="9" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E9" s="78"/>
-      <c r="F9" s="61"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="67"/>
       <c r="G9" s="30"/>
       <c r="H9" s="21" t="s">
         <v>8</v>
@@ -2103,16 +2126,16 @@
       <c r="I9" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="61" t="s">
+      <c r="J9" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="K9" s="61"/>
-      <c r="L9" s="61"/>
-      <c r="M9" s="74"/>
+      <c r="K9" s="67"/>
+      <c r="L9" s="67"/>
+      <c r="M9" s="91"/>
     </row>
     <row r="10" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E10" s="78"/>
-      <c r="F10" s="61"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="67"/>
       <c r="G10" s="30"/>
       <c r="H10" s="21" t="s">
         <v>9</v>
@@ -2120,113 +2143,110 @@
       <c r="I10" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="J10" s="61" t="s">
+      <c r="J10" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="61"/>
-      <c r="L10" s="61"/>
-      <c r="M10" s="74"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="67"/>
+      <c r="M10" s="91"/>
     </row>
     <row r="11" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E11" s="78"/>
-      <c r="F11" s="61"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="67"/>
       <c r="G11" s="30"/>
       <c r="H11" s="21"/>
       <c r="I11" s="15"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="61"/>
-      <c r="M11" s="74"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="91"/>
     </row>
     <row r="12" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E12" s="78" t="s">
+      <c r="E12" s="59" t="s">
+        <v>188</v>
+      </c>
+      <c r="F12" s="59" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="13" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E13" s="123" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="61" t="s">
+      <c r="F13" s="74" t="s">
         <v>119</v>
       </c>
-      <c r="G12" s="30"/>
-      <c r="H12" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="J12" s="61" t="s">
-        <v>25</v>
-      </c>
-      <c r="K12" s="61"/>
-      <c r="L12" s="61"/>
-      <c r="M12" s="74"/>
-    </row>
-    <row r="13" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E13" s="78"/>
-      <c r="F13" s="61"/>
       <c r="G13" s="30"/>
       <c r="H13" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="J13" s="67" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="91"/>
+    </row>
+    <row r="14" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E14" s="124"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="I13" s="25" t="s">
+      <c r="I14" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="J13" s="61" t="s">
+      <c r="J14" s="126" t="s">
         <v>27</v>
       </c>
-      <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="74"/>
-    </row>
-    <row r="14" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E14" s="78"/>
-      <c r="F14" s="61"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="21" t="s">
+      <c r="K14" s="69"/>
+      <c r="L14" s="69"/>
+      <c r="M14" s="70"/>
+    </row>
+    <row r="15" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E15" s="124"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="25" t="s">
+      <c r="I15" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="J14" s="61" t="s">
+      <c r="J15" s="126" t="s">
         <v>26</v>
       </c>
-      <c r="K14" s="61"/>
-      <c r="L14" s="61"/>
-      <c r="M14" s="74"/>
-    </row>
-    <row r="15" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E15" s="78"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="21" t="s">
+      <c r="K15" s="69"/>
+      <c r="L15" s="69"/>
+      <c r="M15" s="70"/>
+    </row>
+    <row r="16" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E16" s="125"/>
+      <c r="F16" s="76"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="25" t="s">
+      <c r="I16" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="J15" s="61" t="s">
+      <c r="J16" s="126" t="s">
         <v>28</v>
       </c>
-      <c r="K15" s="61"/>
-      <c r="L15" s="61"/>
-      <c r="M15" s="74"/>
-    </row>
-    <row r="16" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E16" s="95"/>
-      <c r="F16" s="96"/>
-      <c r="G16" s="96"/>
-      <c r="H16" s="96"/>
-      <c r="I16" s="96"/>
-      <c r="J16" s="96"/>
-      <c r="K16" s="96"/>
-      <c r="L16" s="96"/>
-      <c r="M16" s="97"/>
+      <c r="K16" s="69"/>
+      <c r="L16" s="69"/>
+      <c r="M16" s="70"/>
     </row>
     <row r="17" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E17" s="78" t="s">
+      <c r="E17" s="66" t="s">
         <v>113</v>
       </c>
-      <c r="F17" s="61" t="s">
-        <v>179</v>
+      <c r="F17" s="67" t="s">
+        <v>178</v>
       </c>
       <c r="G17" s="30"/>
       <c r="H17" s="21" t="s">
@@ -2235,16 +2255,16 @@
       <c r="I17" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="J17" s="61" t="s">
+      <c r="J17" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="K17" s="61"/>
-      <c r="L17" s="61"/>
-      <c r="M17" s="74"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="67"/>
+      <c r="M17" s="91"/>
     </row>
     <row r="18" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E18" s="78"/>
-      <c r="F18" s="61"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="67"/>
       <c r="G18" s="30"/>
       <c r="H18" s="4" t="s">
         <v>9</v>
@@ -2252,16 +2272,16 @@
       <c r="I18" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="J18" s="61" t="s">
+      <c r="J18" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="K18" s="61"/>
-      <c r="L18" s="61"/>
-      <c r="M18" s="74"/>
+      <c r="K18" s="67"/>
+      <c r="L18" s="67"/>
+      <c r="M18" s="91"/>
     </row>
     <row r="19" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E19" s="78"/>
-      <c r="F19" s="61"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="67"/>
       <c r="G19" s="30"/>
       <c r="H19" s="21" t="s">
         <v>9</v>
@@ -2269,29 +2289,29 @@
       <c r="I19" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="J19" s="61" t="s">
+      <c r="J19" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="K19" s="61"/>
-      <c r="L19" s="61"/>
-      <c r="M19" s="74"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="67"/>
+      <c r="M19" s="91"/>
     </row>
     <row r="20" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E20" s="95"/>
-      <c r="F20" s="96"/>
-      <c r="G20" s="96"/>
-      <c r="H20" s="96"/>
-      <c r="I20" s="96"/>
-      <c r="J20" s="96"/>
-      <c r="K20" s="96"/>
-      <c r="L20" s="96"/>
-      <c r="M20" s="97"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="69"/>
+      <c r="M20" s="70"/>
     </row>
     <row r="21" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E21" s="78" t="s">
+      <c r="E21" s="66" t="s">
         <v>112</v>
       </c>
-      <c r="F21" s="61" t="s">
+      <c r="F21" s="67" t="s">
         <v>121</v>
       </c>
       <c r="G21" s="30"/>
@@ -2301,16 +2321,16 @@
       <c r="I21" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="J21" s="61" t="s">
+      <c r="J21" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="K21" s="61"/>
-      <c r="L21" s="61"/>
-      <c r="M21" s="74"/>
+      <c r="K21" s="67"/>
+      <c r="L21" s="67"/>
+      <c r="M21" s="91"/>
     </row>
     <row r="22" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E22" s="78"/>
-      <c r="F22" s="61"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="67"/>
       <c r="G22" s="30"/>
       <c r="H22" s="4" t="s">
         <v>9</v>
@@ -2318,16 +2338,16 @@
       <c r="I22" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="J22" s="61" t="s">
+      <c r="J22" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="K22" s="61"/>
-      <c r="L22" s="61"/>
-      <c r="M22" s="74"/>
+      <c r="K22" s="67"/>
+      <c r="L22" s="67"/>
+      <c r="M22" s="91"/>
     </row>
     <row r="23" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E23" s="78"/>
-      <c r="F23" s="61"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="67"/>
       <c r="G23" s="30"/>
       <c r="H23" s="21" t="s">
         <v>7</v>
@@ -2335,16 +2355,16 @@
       <c r="I23" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="J23" s="61" t="s">
+      <c r="J23" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="K23" s="61"/>
-      <c r="L23" s="61"/>
-      <c r="M23" s="74"/>
+      <c r="K23" s="67"/>
+      <c r="L23" s="67"/>
+      <c r="M23" s="91"/>
     </row>
     <row r="24" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E24" s="78"/>
-      <c r="F24" s="61"/>
+      <c r="E24" s="66"/>
+      <c r="F24" s="67"/>
       <c r="G24" s="30"/>
       <c r="H24" s="21" t="s">
         <v>9</v>
@@ -2352,16 +2372,16 @@
       <c r="I24" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="J24" s="61" t="s">
+      <c r="J24" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="K24" s="61"/>
-      <c r="L24" s="61"/>
-      <c r="M24" s="74"/>
+      <c r="K24" s="67"/>
+      <c r="L24" s="67"/>
+      <c r="M24" s="91"/>
     </row>
     <row r="25" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E25" s="78"/>
-      <c r="F25" s="61"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="67"/>
       <c r="G25" s="30"/>
       <c r="H25" s="21" t="s">
         <v>9</v>
@@ -2369,16 +2389,16 @@
       <c r="I25" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="J25" s="61" t="s">
+      <c r="J25" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="K25" s="61"/>
-      <c r="L25" s="61"/>
-      <c r="M25" s="74"/>
+      <c r="K25" s="67"/>
+      <c r="L25" s="67"/>
+      <c r="M25" s="91"/>
     </row>
     <row r="26" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E26" s="78"/>
-      <c r="F26" s="61"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="67"/>
       <c r="G26" s="30"/>
       <c r="H26" s="4" t="s">
         <v>9</v>
@@ -2386,16 +2406,16 @@
       <c r="I26" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="J26" s="61" t="s">
+      <c r="J26" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="K26" s="61"/>
-      <c r="L26" s="61"/>
-      <c r="M26" s="74"/>
+      <c r="K26" s="67"/>
+      <c r="L26" s="67"/>
+      <c r="M26" s="91"/>
     </row>
     <row r="27" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E27" s="78"/>
-      <c r="F27" s="61"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="67"/>
       <c r="G27" s="30"/>
       <c r="H27" s="4" t="s">
         <v>9</v>
@@ -2403,40 +2423,40 @@
       <c r="I27" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="J27" s="61" t="s">
+      <c r="J27" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="K27" s="61"/>
-      <c r="L27" s="61"/>
-      <c r="M27" s="74"/>
+      <c r="K27" s="67"/>
+      <c r="L27" s="67"/>
+      <c r="M27" s="91"/>
     </row>
     <row r="28" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E28" s="62"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="67"/>
-      <c r="I28" s="67"/>
-      <c r="J28" s="67"/>
-      <c r="K28" s="67"/>
-      <c r="L28" s="67"/>
-      <c r="M28" s="68"/>
+      <c r="E28" s="101"/>
+      <c r="F28" s="102"/>
+      <c r="G28" s="105"/>
+      <c r="H28" s="106"/>
+      <c r="I28" s="106"/>
+      <c r="J28" s="106"/>
+      <c r="K28" s="106"/>
+      <c r="L28" s="106"/>
+      <c r="M28" s="107"/>
     </row>
     <row r="29" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E29" s="64"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="70"/>
-      <c r="J29" s="70"/>
-      <c r="K29" s="70"/>
-      <c r="L29" s="70"/>
-      <c r="M29" s="71"/>
+      <c r="E29" s="103"/>
+      <c r="F29" s="104"/>
+      <c r="G29" s="108"/>
+      <c r="H29" s="73"/>
+      <c r="I29" s="73"/>
+      <c r="J29" s="73"/>
+      <c r="K29" s="73"/>
+      <c r="L29" s="73"/>
+      <c r="M29" s="109"/>
     </row>
     <row r="30" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E30" s="78" t="s">
+      <c r="E30" s="66" t="s">
         <v>114</v>
       </c>
-      <c r="F30" s="61" t="s">
+      <c r="F30" s="67" t="s">
         <v>122</v>
       </c>
       <c r="G30" s="30"/>
@@ -2446,16 +2466,16 @@
       <c r="I30" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="J30" s="61" t="s">
+      <c r="J30" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="K30" s="61"/>
-      <c r="L30" s="61"/>
-      <c r="M30" s="74"/>
+      <c r="K30" s="67"/>
+      <c r="L30" s="67"/>
+      <c r="M30" s="91"/>
     </row>
     <row r="31" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E31" s="78"/>
-      <c r="F31" s="61"/>
+      <c r="E31" s="66"/>
+      <c r="F31" s="67"/>
       <c r="G31" s="30"/>
       <c r="H31" s="21" t="s">
         <v>9</v>
@@ -2463,18 +2483,18 @@
       <c r="I31" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="J31" s="61" t="s">
+      <c r="J31" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="K31" s="61"/>
-      <c r="L31" s="61"/>
-      <c r="M31" s="74"/>
+      <c r="K31" s="67"/>
+      <c r="L31" s="67"/>
+      <c r="M31" s="91"/>
     </row>
     <row r="32" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E32" s="72" t="s">
+      <c r="E32" s="97" t="s">
         <v>127</v>
       </c>
-      <c r="F32" s="59" t="s">
+      <c r="F32" s="92" t="s">
         <v>128</v>
       </c>
       <c r="G32" s="48"/>
@@ -2484,33 +2504,33 @@
       <c r="I32" s="48" t="s">
         <v>129</v>
       </c>
-      <c r="J32" s="75" t="s">
+      <c r="J32" s="95" t="s">
         <v>130</v>
       </c>
-      <c r="K32" s="75"/>
-      <c r="L32" s="75"/>
-      <c r="M32" s="76"/>
+      <c r="K32" s="95"/>
+      <c r="L32" s="95"/>
+      <c r="M32" s="96"/>
     </row>
     <row r="33" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E33" s="72"/>
-      <c r="F33" s="59"/>
+      <c r="E33" s="97"/>
+      <c r="F33" s="92"/>
       <c r="G33" s="48"/>
       <c r="H33" s="56" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I33" s="48" t="s">
         <v>131</v>
       </c>
-      <c r="J33" s="75" t="s">
+      <c r="J33" s="95" t="s">
         <v>132</v>
       </c>
-      <c r="K33" s="75"/>
-      <c r="L33" s="75"/>
-      <c r="M33" s="76"/>
+      <c r="K33" s="95"/>
+      <c r="L33" s="95"/>
+      <c r="M33" s="96"/>
     </row>
     <row r="34" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E34" s="72"/>
-      <c r="F34" s="59"/>
+      <c r="E34" s="97"/>
+      <c r="F34" s="92"/>
       <c r="G34" s="48"/>
       <c r="H34" s="21" t="s">
         <v>9</v>
@@ -2518,37 +2538,37 @@
       <c r="I34" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="J34" s="75" t="s">
+      <c r="J34" s="95" t="s">
         <v>134</v>
       </c>
-      <c r="K34" s="75"/>
-      <c r="L34" s="75"/>
-      <c r="M34" s="76"/>
+      <c r="K34" s="95"/>
+      <c r="L34" s="95"/>
+      <c r="M34" s="96"/>
     </row>
     <row r="35" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E35" s="72" t="s">
+      <c r="E35" s="97" t="s">
         <v>135</v>
       </c>
-      <c r="F35" s="59" t="s">
+      <c r="F35" s="92" t="s">
         <v>136</v>
       </c>
       <c r="G35" s="48"/>
       <c r="H35" s="56" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I35" s="48" t="s">
         <v>137</v>
       </c>
-      <c r="J35" s="59" t="s">
+      <c r="J35" s="92" t="s">
         <v>138</v>
       </c>
-      <c r="K35" s="59"/>
-      <c r="L35" s="59"/>
-      <c r="M35" s="77"/>
+      <c r="K35" s="92"/>
+      <c r="L35" s="92"/>
+      <c r="M35" s="93"/>
     </row>
     <row r="36" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E36" s="72"/>
-      <c r="F36" s="59"/>
+      <c r="E36" s="97"/>
+      <c r="F36" s="92"/>
       <c r="G36" s="48"/>
       <c r="H36" s="21" t="s">
         <v>9</v>
@@ -2556,36 +2576,36 @@
       <c r="I36" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="J36" s="75" t="s">
+      <c r="J36" s="95" t="s">
         <v>140</v>
       </c>
-      <c r="K36" s="75"/>
-      <c r="L36" s="75"/>
-      <c r="M36" s="76"/>
+      <c r="K36" s="95"/>
+      <c r="L36" s="95"/>
+      <c r="M36" s="96"/>
     </row>
     <row r="37" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E37" s="72"/>
-      <c r="F37" s="59"/>
+      <c r="E37" s="97"/>
+      <c r="F37" s="92"/>
       <c r="G37" s="49"/>
       <c r="H37" s="57" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I37" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="J37" s="59" t="s">
+      <c r="J37" s="92" t="s">
         <v>142</v>
       </c>
-      <c r="K37" s="59"/>
-      <c r="L37" s="59"/>
-      <c r="M37" s="77"/>
+      <c r="K37" s="92"/>
+      <c r="L37" s="92"/>
+      <c r="M37" s="93"/>
     </row>
     <row r="38" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E38" s="72" t="s">
+      <c r="E38" s="97" t="s">
         <v>143</v>
       </c>
-      <c r="F38" s="59" t="s">
-        <v>144</v>
+      <c r="F38" s="92" t="s">
+        <v>191</v>
       </c>
       <c r="G38" s="48"/>
       <c r="H38" s="21" t="s">
@@ -2594,283 +2614,283 @@
       <c r="I38" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="J38" s="75" t="s">
-        <v>145</v>
-      </c>
-      <c r="K38" s="75"/>
-      <c r="L38" s="75"/>
-      <c r="M38" s="76"/>
+      <c r="J38" s="95" t="s">
+        <v>144</v>
+      </c>
+      <c r="K38" s="95"/>
+      <c r="L38" s="95"/>
+      <c r="M38" s="96"/>
     </row>
     <row r="39" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E39" s="72"/>
-      <c r="F39" s="59"/>
+      <c r="E39" s="97"/>
+      <c r="F39" s="92"/>
       <c r="G39" s="48"/>
       <c r="H39" s="21" t="s">
         <v>9</v>
       </c>
       <c r="I39" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="J39" s="95" t="s">
         <v>146</v>
       </c>
-      <c r="J39" s="75" t="s">
-        <v>147</v>
-      </c>
-      <c r="K39" s="75"/>
-      <c r="L39" s="75"/>
-      <c r="M39" s="76"/>
+      <c r="K39" s="95"/>
+      <c r="L39" s="95"/>
+      <c r="M39" s="96"/>
     </row>
     <row r="40" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E40" s="72"/>
-      <c r="F40" s="59"/>
+      <c r="E40" s="97"/>
+      <c r="F40" s="92"/>
       <c r="G40" s="48"/>
       <c r="H40" s="56" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I40" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="J40" s="95" t="s">
         <v>148</v>
       </c>
-      <c r="J40" s="75" t="s">
-        <v>149</v>
-      </c>
-      <c r="K40" s="75"/>
-      <c r="L40" s="75"/>
-      <c r="M40" s="76"/>
+      <c r="K40" s="95"/>
+      <c r="L40" s="95"/>
+      <c r="M40" s="96"/>
     </row>
     <row r="41" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E41" s="72"/>
-      <c r="F41" s="59"/>
+      <c r="E41" s="97"/>
+      <c r="F41" s="92"/>
       <c r="G41" s="48"/>
       <c r="H41" s="21" t="s">
         <v>9</v>
       </c>
       <c r="I41" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="J41" s="95" t="s">
         <v>150</v>
       </c>
-      <c r="J41" s="75" t="s">
-        <v>151</v>
-      </c>
-      <c r="K41" s="75"/>
-      <c r="L41" s="75"/>
-      <c r="M41" s="76"/>
+      <c r="K41" s="95"/>
+      <c r="L41" s="95"/>
+      <c r="M41" s="96"/>
     </row>
     <row r="42" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E42" s="72"/>
-      <c r="F42" s="59"/>
+      <c r="E42" s="97"/>
+      <c r="F42" s="92"/>
       <c r="G42" s="48"/>
       <c r="H42" s="21" t="s">
         <v>9</v>
       </c>
       <c r="I42" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="J42" s="95" t="s">
         <v>152</v>
       </c>
-      <c r="J42" s="75" t="s">
-        <v>153</v>
-      </c>
-      <c r="K42" s="75"/>
-      <c r="L42" s="75"/>
-      <c r="M42" s="76"/>
+      <c r="K42" s="95"/>
+      <c r="L42" s="95"/>
+      <c r="M42" s="96"/>
     </row>
     <row r="43" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E43" s="72"/>
-      <c r="F43" s="59"/>
+      <c r="E43" s="97"/>
+      <c r="F43" s="92"/>
       <c r="G43" s="48"/>
       <c r="H43" s="21" t="s">
         <v>9</v>
       </c>
       <c r="I43" s="48" t="s">
+        <v>153</v>
+      </c>
+      <c r="J43" s="95" t="s">
         <v>154</v>
       </c>
-      <c r="J43" s="75" t="s">
-        <v>155</v>
-      </c>
-      <c r="K43" s="75"/>
-      <c r="L43" s="75"/>
-      <c r="M43" s="76"/>
+      <c r="K43" s="95"/>
+      <c r="L43" s="95"/>
+      <c r="M43" s="96"/>
     </row>
     <row r="44" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E44" s="72"/>
-      <c r="F44" s="59"/>
+      <c r="E44" s="97"/>
+      <c r="F44" s="92"/>
       <c r="G44" s="48"/>
       <c r="H44" s="21" t="s">
         <v>9</v>
       </c>
       <c r="I44" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="J44" s="95" t="s">
         <v>156</v>
       </c>
-      <c r="J44" s="75" t="s">
-        <v>157</v>
-      </c>
-      <c r="K44" s="75"/>
-      <c r="L44" s="75"/>
-      <c r="M44" s="76"/>
+      <c r="K44" s="95"/>
+      <c r="L44" s="95"/>
+      <c r="M44" s="96"/>
     </row>
     <row r="45" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E45" s="72"/>
-      <c r="F45" s="59"/>
+      <c r="E45" s="97"/>
+      <c r="F45" s="92"/>
       <c r="G45" s="48"/>
       <c r="H45" s="56" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I45" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="J45" s="92" t="s">
         <v>158</v>
       </c>
-      <c r="J45" s="59" t="s">
-        <v>159</v>
-      </c>
-      <c r="K45" s="59"/>
-      <c r="L45" s="59"/>
-      <c r="M45" s="77"/>
+      <c r="K45" s="92"/>
+      <c r="L45" s="92"/>
+      <c r="M45" s="93"/>
     </row>
     <row r="46" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E46" s="72"/>
-      <c r="F46" s="59"/>
+      <c r="E46" s="97"/>
+      <c r="F46" s="92"/>
       <c r="G46" s="48"/>
       <c r="H46" s="21" t="s">
         <v>9</v>
       </c>
       <c r="I46" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="J46" s="92" t="s">
         <v>160</v>
       </c>
-      <c r="J46" s="59" t="s">
-        <v>161</v>
-      </c>
-      <c r="K46" s="59"/>
-      <c r="L46" s="59"/>
-      <c r="M46" s="77"/>
+      <c r="K46" s="92"/>
+      <c r="L46" s="92"/>
+      <c r="M46" s="93"/>
     </row>
     <row r="47" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E47" s="72"/>
-      <c r="F47" s="59"/>
+      <c r="E47" s="97"/>
+      <c r="F47" s="92"/>
       <c r="G47" s="48"/>
       <c r="H47" s="21" t="s">
         <v>9</v>
       </c>
       <c r="I47" s="48" t="s">
+        <v>161</v>
+      </c>
+      <c r="J47" s="92" t="s">
         <v>162</v>
       </c>
-      <c r="J47" s="59" t="s">
-        <v>163</v>
-      </c>
-      <c r="K47" s="59"/>
-      <c r="L47" s="59"/>
-      <c r="M47" s="77"/>
+      <c r="K47" s="92"/>
+      <c r="L47" s="92"/>
+      <c r="M47" s="93"/>
     </row>
     <row r="48" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E48" s="72"/>
-      <c r="F48" s="59"/>
+      <c r="E48" s="97"/>
+      <c r="F48" s="92"/>
       <c r="G48" s="48"/>
       <c r="H48" s="21" t="s">
         <v>9</v>
       </c>
       <c r="I48" s="48" t="s">
+        <v>163</v>
+      </c>
+      <c r="J48" s="92" t="s">
         <v>164</v>
       </c>
-      <c r="J48" s="59" t="s">
-        <v>165</v>
-      </c>
-      <c r="K48" s="59"/>
-      <c r="L48" s="59"/>
-      <c r="M48" s="77"/>
+      <c r="K48" s="92"/>
+      <c r="L48" s="92"/>
+      <c r="M48" s="93"/>
     </row>
     <row r="49" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E49" s="72"/>
-      <c r="F49" s="59"/>
+      <c r="E49" s="97"/>
+      <c r="F49" s="92"/>
       <c r="G49" s="48"/>
       <c r="H49" s="21" t="s">
         <v>9</v>
       </c>
       <c r="I49" s="48" t="s">
+        <v>165</v>
+      </c>
+      <c r="J49" s="92" t="s">
         <v>166</v>
       </c>
-      <c r="J49" s="59" t="s">
+      <c r="K49" s="92"/>
+      <c r="L49" s="92"/>
+      <c r="M49" s="93"/>
+    </row>
+    <row r="50" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E50" s="97" t="s">
         <v>167</v>
       </c>
-      <c r="K49" s="59"/>
-      <c r="L49" s="59"/>
-      <c r="M49" s="77"/>
-    </row>
-    <row r="50" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E50" s="72" t="s">
+      <c r="F50" s="92" t="s">
         <v>168</v>
-      </c>
-      <c r="F50" s="59" t="s">
-        <v>169</v>
       </c>
       <c r="G50" s="48"/>
       <c r="H50" s="21" t="s">
         <v>9</v>
       </c>
       <c r="I50" s="48" t="s">
+        <v>169</v>
+      </c>
+      <c r="J50" s="92" t="s">
         <v>170</v>
       </c>
-      <c r="J50" s="59" t="s">
-        <v>171</v>
-      </c>
-      <c r="K50" s="59"/>
-      <c r="L50" s="59"/>
-      <c r="M50" s="77"/>
+      <c r="K50" s="92"/>
+      <c r="L50" s="92"/>
+      <c r="M50" s="93"/>
     </row>
     <row r="51" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E51" s="72"/>
-      <c r="F51" s="59"/>
+      <c r="E51" s="97"/>
+      <c r="F51" s="92"/>
       <c r="G51" s="48"/>
       <c r="H51" s="21" t="s">
         <v>9</v>
       </c>
       <c r="I51" s="48" t="s">
+        <v>171</v>
+      </c>
+      <c r="J51" s="92" t="s">
         <v>172</v>
       </c>
-      <c r="J51" s="59" t="s">
-        <v>173</v>
-      </c>
-      <c r="K51" s="59"/>
-      <c r="L51" s="59"/>
-      <c r="M51" s="77"/>
+      <c r="K51" s="92"/>
+      <c r="L51" s="92"/>
+      <c r="M51" s="93"/>
     </row>
     <row r="52" spans="5:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E52" s="73"/>
-      <c r="F52" s="118"/>
+      <c r="E52" s="98"/>
+      <c r="F52" s="110"/>
       <c r="G52" s="55"/>
       <c r="H52" s="58" t="s">
         <v>9</v>
       </c>
       <c r="I52" s="55" t="s">
+        <v>173</v>
+      </c>
+      <c r="J52" s="99" t="s">
         <v>174</v>
       </c>
-      <c r="J52" s="60" t="s">
-        <v>175</v>
-      </c>
-      <c r="K52" s="60"/>
-      <c r="L52" s="60"/>
-      <c r="M52" s="79"/>
+      <c r="K52" s="99"/>
+      <c r="L52" s="99"/>
+      <c r="M52" s="100"/>
     </row>
     <row r="53" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E53" s="112" t="s">
+      <c r="E53" s="71" t="s">
+        <v>179</v>
+      </c>
+      <c r="F53" s="74" t="s">
         <v>180</v>
       </c>
-      <c r="F53" s="119" t="s">
+      <c r="G53" s="61"/>
+      <c r="H53" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="G53" s="113"/>
-      <c r="H53" s="114" t="s">
+      <c r="I53" s="63" t="s">
         <v>182</v>
       </c>
-      <c r="I53" s="115" t="s">
-        <v>183</v>
-      </c>
-      <c r="J53" s="113"/>
+      <c r="J53" s="61"/>
       <c r="K53" s="47"/>
       <c r="L53" s="47"/>
       <c r="M53" s="47"/>
     </row>
     <row r="54" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E54" s="107"/>
-      <c r="F54" s="120"/>
+      <c r="E54" s="72"/>
+      <c r="F54" s="75"/>
       <c r="G54" s="47"/>
       <c r="H54" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="I54" s="60" t="s">
         <v>184</v>
-      </c>
-      <c r="I54" s="111" t="s">
-        <v>185</v>
       </c>
       <c r="J54" s="47"/>
       <c r="K54" s="47"/>
@@ -2878,83 +2898,41 @@
       <c r="M54" s="47"/>
     </row>
     <row r="55" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E55" s="107"/>
-      <c r="F55" s="120"/>
+      <c r="E55" s="72"/>
+      <c r="F55" s="75"/>
       <c r="G55" s="7"/>
       <c r="H55" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="I55" s="111" t="s">
+        <v>183</v>
+      </c>
+      <c r="I55" s="60" t="s">
+        <v>185</v>
+      </c>
+      <c r="J55" s="7"/>
+    </row>
+    <row r="56" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E56" s="73"/>
+      <c r="F56" s="76"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="64" t="s">
         <v>186</v>
       </c>
-      <c r="J55" s="7"/>
-    </row>
-    <row r="56" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E56" s="70"/>
-      <c r="F56" s="121"/>
-      <c r="G56" s="11"/>
-      <c r="H56" s="116" t="s">
+      <c r="I56" s="65" t="s">
         <v>187</v>
       </c>
-      <c r="I56" s="117" t="s">
-        <v>188</v>
-      </c>
       <c r="J56" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="70">
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="E16:M16"/>
-    <mergeCell ref="E20:M20"/>
-    <mergeCell ref="E53:E56"/>
-    <mergeCell ref="F53:F56"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="E4:M5"/>
-    <mergeCell ref="E7:E11"/>
-    <mergeCell ref="F7:F11"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="J8:M8"/>
+  <mergeCells count="69">
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="F13:F16"/>
+    <mergeCell ref="J16:M16"/>
     <mergeCell ref="J15:M15"/>
     <mergeCell ref="J14:M14"/>
-    <mergeCell ref="J37:M37"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="J23:M23"/>
-    <mergeCell ref="J22:M22"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="E50:E52"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="J33:M33"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="J35:M35"/>
-    <mergeCell ref="E21:E27"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="E32:E34"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="J48:M48"/>
-    <mergeCell ref="J49:M49"/>
-    <mergeCell ref="J50:M50"/>
-    <mergeCell ref="J51:M51"/>
-    <mergeCell ref="J52:M52"/>
-    <mergeCell ref="F21:F27"/>
-    <mergeCell ref="E28:F29"/>
-    <mergeCell ref="G28:M29"/>
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="F38:F49"/>
+    <mergeCell ref="F35:F37"/>
+    <mergeCell ref="F32:F34"/>
+    <mergeCell ref="F30:F31"/>
     <mergeCell ref="E35:E37"/>
     <mergeCell ref="E38:E49"/>
     <mergeCell ref="J43:M43"/>
@@ -2968,11 +2946,52 @@
     <mergeCell ref="J41:M41"/>
     <mergeCell ref="J42:M42"/>
     <mergeCell ref="J36:M36"/>
-    <mergeCell ref="F50:F52"/>
-    <mergeCell ref="F38:F49"/>
-    <mergeCell ref="F35:F37"/>
-    <mergeCell ref="F32:F34"/>
-    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="J48:M48"/>
+    <mergeCell ref="J49:M49"/>
+    <mergeCell ref="J50:M50"/>
+    <mergeCell ref="J51:M51"/>
+    <mergeCell ref="J52:M52"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="E32:E34"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="F21:F27"/>
+    <mergeCell ref="E28:F29"/>
+    <mergeCell ref="G28:M29"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="E4:M5"/>
+    <mergeCell ref="E7:E11"/>
+    <mergeCell ref="F7:F11"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="E20:M20"/>
+    <mergeCell ref="E53:E56"/>
+    <mergeCell ref="F53:F56"/>
+    <mergeCell ref="J37:M37"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="E50:E52"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="J33:M33"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="J35:M35"/>
+    <mergeCell ref="E21:E27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2984,8 +3003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E7:P30"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F16" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="E13" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3014,12 +3033,12 @@
       <c r="K7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="L7" s="98" t="s">
+      <c r="L7" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="M7" s="99"/>
-      <c r="N7" s="99"/>
-      <c r="O7" s="100"/>
+      <c r="M7" s="113"/>
+      <c r="N7" s="113"/>
+      <c r="O7" s="114"/>
     </row>
     <row r="8" spans="5:16" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G8" s="9" t="s">
@@ -3033,12 +3052,12 @@
       <c r="K8" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="L8" s="101" t="s">
+      <c r="L8" s="115" t="s">
         <v>84</v>
       </c>
-      <c r="M8" s="101"/>
-      <c r="N8" s="101"/>
-      <c r="O8" s="102"/>
+      <c r="M8" s="115"/>
+      <c r="N8" s="115"/>
+      <c r="O8" s="116"/>
     </row>
     <row r="9" spans="5:16" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G9" s="9"/>
@@ -3047,12 +3066,12 @@
       <c r="K9" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="L9" s="101" t="s">
+      <c r="L9" s="115" t="s">
         <v>85</v>
       </c>
-      <c r="M9" s="101"/>
-      <c r="N9" s="101"/>
-      <c r="O9" s="102"/>
+      <c r="M9" s="115"/>
+      <c r="N9" s="115"/>
+      <c r="O9" s="116"/>
     </row>
     <row r="10" spans="5:16" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G10" s="10"/>
@@ -3061,12 +3080,12 @@
       <c r="K10" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="L10" s="103" t="s">
+      <c r="L10" s="117" t="s">
         <v>86</v>
       </c>
-      <c r="M10" s="103"/>
-      <c r="N10" s="103"/>
-      <c r="O10" s="104"/>
+      <c r="M10" s="117"/>
+      <c r="N10" s="117"/>
+      <c r="O10" s="118"/>
     </row>
     <row r="11" spans="5:16" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E11" s="7"/>
@@ -3082,12 +3101,12 @@
       <c r="K11" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="L11" s="67" t="s">
+      <c r="L11" s="106" t="s">
         <v>87</v>
       </c>
-      <c r="M11" s="67"/>
-      <c r="N11" s="67"/>
-      <c r="O11" s="63"/>
+      <c r="M11" s="106"/>
+      <c r="N11" s="106"/>
+      <c r="O11" s="102"/>
       <c r="P11" s="7"/>
     </row>
     <row r="12" spans="5:16" x14ac:dyDescent="0.3">
@@ -3099,12 +3118,12 @@
       <c r="K12" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="L12" s="103" t="s">
+      <c r="L12" s="117" t="s">
         <v>88</v>
       </c>
-      <c r="M12" s="103"/>
-      <c r="N12" s="103"/>
-      <c r="O12" s="104"/>
+      <c r="M12" s="117"/>
+      <c r="N12" s="117"/>
+      <c r="O12" s="118"/>
       <c r="P12" s="7"/>
     </row>
     <row r="13" spans="5:16" x14ac:dyDescent="0.3">
@@ -3121,12 +3140,12 @@
       <c r="K13" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="L13" s="105" t="s">
+      <c r="L13" s="119" t="s">
         <v>89</v>
       </c>
-      <c r="M13" s="105"/>
-      <c r="N13" s="105"/>
-      <c r="O13" s="106"/>
+      <c r="M13" s="119"/>
+      <c r="N13" s="119"/>
+      <c r="O13" s="120"/>
       <c r="P13" s="7"/>
     </row>
     <row r="14" spans="5:16" x14ac:dyDescent="0.3">
@@ -3138,12 +3157,12 @@
       <c r="K14" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="L14" s="101" t="s">
+      <c r="L14" s="115" t="s">
         <v>90</v>
       </c>
-      <c r="M14" s="101"/>
-      <c r="N14" s="101"/>
-      <c r="O14" s="102"/>
+      <c r="M14" s="115"/>
+      <c r="N14" s="115"/>
+      <c r="O14" s="116"/>
       <c r="P14" s="7"/>
     </row>
     <row r="15" spans="5:16" x14ac:dyDescent="0.3">
@@ -3155,12 +3174,12 @@
       <c r="K15" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="L15" s="101" t="s">
+      <c r="L15" s="115" t="s">
         <v>97</v>
       </c>
-      <c r="M15" s="101"/>
-      <c r="N15" s="101"/>
-      <c r="O15" s="102"/>
+      <c r="M15" s="115"/>
+      <c r="N15" s="115"/>
+      <c r="O15" s="116"/>
       <c r="P15" s="7"/>
     </row>
     <row r="16" spans="5:16" x14ac:dyDescent="0.3">
@@ -3172,12 +3191,12 @@
       <c r="K16" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="L16" s="101" t="s">
+      <c r="L16" s="115" t="s">
         <v>98</v>
       </c>
-      <c r="M16" s="101"/>
-      <c r="N16" s="101"/>
-      <c r="O16" s="102"/>
+      <c r="M16" s="115"/>
+      <c r="N16" s="115"/>
+      <c r="O16" s="116"/>
       <c r="P16" s="7"/>
     </row>
     <row r="17" spans="5:16" x14ac:dyDescent="0.3">
@@ -3189,12 +3208,12 @@
       <c r="K17" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="L17" s="101" t="s">
+      <c r="L17" s="115" t="s">
         <v>99</v>
       </c>
-      <c r="M17" s="101"/>
-      <c r="N17" s="101"/>
-      <c r="O17" s="102"/>
+      <c r="M17" s="115"/>
+      <c r="N17" s="115"/>
+      <c r="O17" s="116"/>
       <c r="P17" s="7"/>
     </row>
     <row r="18" spans="5:16" x14ac:dyDescent="0.3">
@@ -3206,12 +3225,12 @@
       <c r="K18" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="L18" s="101" t="s">
+      <c r="L18" s="115" t="s">
         <v>91</v>
       </c>
-      <c r="M18" s="101"/>
-      <c r="N18" s="101"/>
-      <c r="O18" s="102"/>
+      <c r="M18" s="115"/>
+      <c r="N18" s="115"/>
+      <c r="O18" s="116"/>
       <c r="P18" s="7"/>
     </row>
     <row r="19" spans="5:16" x14ac:dyDescent="0.3">
@@ -3223,12 +3242,12 @@
       <c r="K19" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="L19" s="101" t="s">
+      <c r="L19" s="115" t="s">
         <v>92</v>
       </c>
-      <c r="M19" s="101"/>
-      <c r="N19" s="101"/>
-      <c r="O19" s="102"/>
+      <c r="M19" s="115"/>
+      <c r="N19" s="115"/>
+      <c r="O19" s="116"/>
       <c r="P19" s="7"/>
     </row>
     <row r="20" spans="5:16" x14ac:dyDescent="0.3">
@@ -3240,12 +3259,12 @@
       <c r="K20" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="L20" s="70" t="s">
+      <c r="L20" s="73" t="s">
         <v>93</v>
       </c>
-      <c r="M20" s="70"/>
-      <c r="N20" s="70"/>
-      <c r="O20" s="65"/>
+      <c r="M20" s="73"/>
+      <c r="N20" s="73"/>
+      <c r="O20" s="104"/>
       <c r="P20" s="7"/>
     </row>
     <row r="21" spans="5:16" x14ac:dyDescent="0.3">
@@ -3262,12 +3281,12 @@
       <c r="K21" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="L21" s="67" t="s">
+      <c r="L21" s="106" t="s">
         <v>94</v>
       </c>
-      <c r="M21" s="67"/>
-      <c r="N21" s="67"/>
-      <c r="O21" s="63"/>
+      <c r="M21" s="106"/>
+      <c r="N21" s="106"/>
+      <c r="O21" s="102"/>
       <c r="P21" s="7"/>
     </row>
     <row r="22" spans="5:16" x14ac:dyDescent="0.3">
@@ -3279,12 +3298,12 @@
       <c r="K22" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="L22" s="107" t="s">
+      <c r="L22" s="72" t="s">
         <v>95</v>
       </c>
-      <c r="M22" s="107"/>
-      <c r="N22" s="107"/>
-      <c r="O22" s="108"/>
+      <c r="M22" s="72"/>
+      <c r="N22" s="72"/>
+      <c r="O22" s="111"/>
       <c r="P22" s="7"/>
     </row>
     <row r="23" spans="5:16" x14ac:dyDescent="0.3">
@@ -3296,12 +3315,12 @@
       <c r="K23" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="L23" s="107" t="s">
+      <c r="L23" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="M23" s="107"/>
-      <c r="N23" s="107"/>
-      <c r="O23" s="108"/>
+      <c r="M23" s="72"/>
+      <c r="N23" s="72"/>
+      <c r="O23" s="111"/>
       <c r="P23" s="7"/>
     </row>
     <row r="24" spans="5:16" x14ac:dyDescent="0.3">
@@ -3313,12 +3332,12 @@
       <c r="K24" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="L24" s="70" t="s">
+      <c r="L24" s="73" t="s">
         <v>100</v>
       </c>
-      <c r="M24" s="70"/>
-      <c r="N24" s="70"/>
-      <c r="O24" s="65"/>
+      <c r="M24" s="73"/>
+      <c r="N24" s="73"/>
+      <c r="O24" s="104"/>
       <c r="P24" s="7"/>
     </row>
     <row r="25" spans="5:16" x14ac:dyDescent="0.3">
@@ -3335,12 +3354,12 @@
       <c r="K25" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="L25" s="67" t="s">
+      <c r="L25" s="106" t="s">
         <v>101</v>
       </c>
-      <c r="M25" s="67"/>
-      <c r="N25" s="67"/>
-      <c r="O25" s="63"/>
+      <c r="M25" s="106"/>
+      <c r="N25" s="106"/>
+      <c r="O25" s="102"/>
       <c r="P25" s="7"/>
     </row>
     <row r="26" spans="5:16" x14ac:dyDescent="0.3">
@@ -3352,12 +3371,12 @@
       <c r="K26" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="L26" s="70" t="s">
+      <c r="L26" s="73" t="s">
         <v>102</v>
       </c>
-      <c r="M26" s="70"/>
-      <c r="N26" s="70"/>
-      <c r="O26" s="65"/>
+      <c r="M26" s="73"/>
+      <c r="N26" s="73"/>
+      <c r="O26" s="104"/>
       <c r="P26" s="7"/>
     </row>
     <row r="27" spans="5:16" x14ac:dyDescent="0.3">
@@ -3374,12 +3393,12 @@
       <c r="K27" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="L27" s="107" t="s">
+      <c r="L27" s="72" t="s">
         <v>103</v>
       </c>
-      <c r="M27" s="107"/>
-      <c r="N27" s="107"/>
-      <c r="O27" s="108"/>
+      <c r="M27" s="72"/>
+      <c r="N27" s="72"/>
+      <c r="O27" s="111"/>
       <c r="P27" s="7"/>
     </row>
     <row r="28" spans="5:16" x14ac:dyDescent="0.3">
@@ -3391,12 +3410,12 @@
       <c r="K28" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="L28" s="107" t="s">
+      <c r="L28" s="72" t="s">
         <v>104</v>
       </c>
-      <c r="M28" s="107"/>
-      <c r="N28" s="107"/>
-      <c r="O28" s="108"/>
+      <c r="M28" s="72"/>
+      <c r="N28" s="72"/>
+      <c r="O28" s="111"/>
       <c r="P28" s="7"/>
     </row>
     <row r="29" spans="5:16" x14ac:dyDescent="0.3">
@@ -3408,12 +3427,12 @@
       <c r="K29" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="L29" s="70" t="s">
+      <c r="L29" s="73" t="s">
         <v>105</v>
       </c>
-      <c r="M29" s="70"/>
-      <c r="N29" s="70"/>
-      <c r="O29" s="65"/>
+      <c r="M29" s="73"/>
+      <c r="N29" s="73"/>
+      <c r="O29" s="104"/>
       <c r="P29" s="7"/>
     </row>
     <row r="30" spans="5:16" x14ac:dyDescent="0.3">
@@ -3424,25 +3443,14 @@
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
-      <c r="L30" s="107"/>
-      <c r="M30" s="107"/>
-      <c r="N30" s="107"/>
-      <c r="O30" s="107"/>
+      <c r="L30" s="72"/>
+      <c r="M30" s="72"/>
+      <c r="N30" s="72"/>
+      <c r="O30" s="72"/>
       <c r="P30" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="L30:O30"/>
-    <mergeCell ref="L25:O25"/>
-    <mergeCell ref="L26:O26"/>
-    <mergeCell ref="L27:O27"/>
-    <mergeCell ref="L28:O28"/>
-    <mergeCell ref="L29:O29"/>
-    <mergeCell ref="L20:O20"/>
-    <mergeCell ref="L21:O21"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="L23:O23"/>
-    <mergeCell ref="L24:O24"/>
     <mergeCell ref="L7:O7"/>
     <mergeCell ref="L8:O8"/>
     <mergeCell ref="L9:O9"/>
@@ -3456,6 +3464,17 @@
     <mergeCell ref="L15:O15"/>
     <mergeCell ref="L16:O16"/>
     <mergeCell ref="L17:O17"/>
+    <mergeCell ref="L20:O20"/>
+    <mergeCell ref="L21:O21"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="L30:O30"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="L26:O26"/>
+    <mergeCell ref="L27:O27"/>
+    <mergeCell ref="L28:O28"/>
+    <mergeCell ref="L29:O29"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3467,8 +3486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:I31"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3483,48 +3502,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="77" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
       <c r="D1" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="79" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
+      <c r="B2" s="80"/>
+      <c r="C2" s="80"/>
       <c r="D2" s="17" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="86" t="s">
+      <c r="A3" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="88"/>
+      <c r="B3" s="82"/>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="83"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="89"/>
-      <c r="B4" s="90"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="91"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="86"/>
     </row>
     <row r="5" spans="1:9" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
@@ -3542,12 +3561,12 @@
       <c r="E5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="109" t="s">
+      <c r="F5" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="109"/>
-      <c r="H5" s="109"/>
-      <c r="I5" s="110"/>
+      <c r="G5" s="121"/>
+      <c r="H5" s="121"/>
+      <c r="I5" s="122"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="33" t="s">

--- a/설계및정의서/클래스 다이어그램 설명서.xlsx
+++ b/설계및정의서/클래스 다이어그램 설명서.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT\BitCamp_AR\설계및정의서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kindc\Desktop\BitCamp\BitCamp_AR\설계및정의서\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B91815-3011-4B33-AFF1-08EC90EC7F08}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6390" yWindow="3405" windowWidth="21600" windowHeight="11385"/>
+    <workbookView xWindow="6480" yWindow="690" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,18 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="102">
   <si>
     <t>클래스 다이어그램</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -434,7 +429,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -695,111 +690,126 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1114,11 +1124,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="E1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="D5" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1127,449 +1137,554 @@
     <col min="6" max="6" width="23.375" customWidth="1"/>
     <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="48.625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="100.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="5:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="4" t="s">
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="3" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="3" spans="5:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E3" s="22">
+      <c r="E3" s="14">
         <v>43738.709722222222</v>
       </c>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="5" t="s">
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="4" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
     </row>
     <row r="5" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
     </row>
     <row r="6" spans="5:13" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="J6" s="27" t="s">
+      <c r="J6" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="27"/>
-    </row>
-    <row r="7" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E7" s="15" t="s">
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+    </row>
+    <row r="7" spans="5:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E7" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="11" t="s">
         <v>8</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="J7" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
     </row>
     <row r="8" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="11"/>
       <c r="H8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="J8" s="19" t="s">
+      <c r="J8" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-    </row>
-    <row r="9" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+    </row>
+    <row r="9" spans="5:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="11"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="11"/>
       <c r="H9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="J9" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-    </row>
-    <row r="10" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+    </row>
+    <row r="10" spans="5:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="11"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="11"/>
       <c r="H10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="19" t="s">
+      <c r="J10" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
     </row>
     <row r="11" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="11"/>
       <c r="H11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="19" t="s">
+      <c r="J11" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
     </row>
     <row r="12" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="11" t="s">
         <v>8</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="19" t="s">
+      <c r="J12" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
     </row>
     <row r="13" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="11"/>
       <c r="H13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="19" t="s">
+      <c r="J13" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
     </row>
     <row r="14" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="11"/>
       <c r="H14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="J14" s="19" t="s">
+      <c r="J14" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="36"/>
     </row>
     <row r="15" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="11"/>
       <c r="H15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="J15" s="19" t="s">
+      <c r="J15" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
     </row>
     <row r="16" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="16" t="s">
+      <c r="F16" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="20" t="s">
         <v>8</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J16" s="19" t="s">
+      <c r="J16" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="36"/>
     </row>
     <row r="17" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="10" t="s">
+      <c r="E17" s="21"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="I17" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="J17" s="15" t="s">
+      <c r="J17" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
     </row>
     <row r="18" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="21"/>
       <c r="H18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="J18" s="19" t="s">
+      <c r="J18" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
     </row>
     <row r="19" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="21"/>
       <c r="H19" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I19" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="J19" s="19" t="s">
+      <c r="J19" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="36"/>
     </row>
     <row r="20" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="11" t="s">
+      <c r="E20" s="22"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I20" s="12" t="s">
+      <c r="I20" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="J20" s="15" t="s">
+      <c r="J20" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
     </row>
     <row r="21" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E21" t="s">
+      <c r="E21" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="F21" s="35"/>
+      <c r="G21" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="H21" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I21" s="7" t="s">
+      <c r="I21" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="J21" s="19" t="s">
+      <c r="J21" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
     </row>
     <row r="22" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="H22" s="10" t="s">
+      <c r="E22" s="21"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I22" s="9" t="s">
+      <c r="I22" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" s="37" t="s">
         <v>53</v>
       </c>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="39"/>
     </row>
     <row r="23" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="H23" s="10" t="s">
+      <c r="E23" s="22"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I23" s="9" t="s">
+      <c r="I23" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="37" t="s">
         <v>55</v>
       </c>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="39"/>
     </row>
     <row r="24" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E24" t="s">
+      <c r="E24" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="H24" s="10" t="s">
+      <c r="G24" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I24" s="9" t="s">
+      <c r="I24" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J24" s="37" t="s">
         <v>69</v>
       </c>
+      <c r="K24" s="38"/>
+      <c r="L24" s="38"/>
+      <c r="M24" s="39"/>
     </row>
     <row r="25" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E25" t="s">
+      <c r="E25" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="35" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="28" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E28" t="s">
+      <c r="G25" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="8"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="38"/>
+      <c r="M25" s="39"/>
+    </row>
+    <row r="26" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E26" s="29"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" s="8"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="38"/>
+      <c r="M26" s="39"/>
+    </row>
+    <row r="27" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E27" s="29"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" s="8"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="38"/>
+      <c r="L27" s="38"/>
+      <c r="M27" s="39"/>
+    </row>
+    <row r="28" spans="5:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="E28" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="H28" s="10" t="s">
+      <c r="G28" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="H28" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I28" s="9" t="s">
+      <c r="I28" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J28" s="37" t="s">
         <v>64</v>
       </c>
+      <c r="K28" s="38"/>
+      <c r="L28" s="38"/>
+      <c r="M28" s="39"/>
     </row>
     <row r="29" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="H29" s="13" t="s">
+      <c r="E29" s="29"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I29" s="14" t="s">
+      <c r="I29" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J29" s="37" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="31" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E31" t="s">
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+      <c r="M29" s="39"/>
+    </row>
+    <row r="30" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E30" s="29"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="8"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="38"/>
+      <c r="L30" s="38"/>
+      <c r="M30" s="39"/>
+    </row>
+    <row r="31" spans="5:13" ht="33" x14ac:dyDescent="0.3">
+      <c r="E31" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="I31" t="s">
+      <c r="G31" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="J31" t="s">
+      <c r="J31" s="37" t="s">
         <v>59</v>
       </c>
+      <c r="K31" s="38"/>
+      <c r="L31" s="38"/>
+      <c r="M31" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="J16:M16"/>
+  <mergeCells count="42">
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="G28:G30"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="J22:M22"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="E16:E20"/>
+    <mergeCell ref="F16:F20"/>
+    <mergeCell ref="G16:G20"/>
+    <mergeCell ref="J21:M21"/>
     <mergeCell ref="E2:G2"/>
     <mergeCell ref="E3:G3"/>
     <mergeCell ref="F12:F15"/>
@@ -1586,11 +1701,13 @@
     <mergeCell ref="G12:G15"/>
     <mergeCell ref="J15:M15"/>
     <mergeCell ref="J14:M14"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="E16:E20"/>
-    <mergeCell ref="F16:F20"/>
-    <mergeCell ref="G16:G20"/>
-    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="J16:M16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1599,11 +1716,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="G7:O19"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15:O15"/>
+      <selection activeCell="L19" sqref="L19:O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1617,27 +1734,27 @@
   </cols>
   <sheetData>
     <row r="7" spans="7:15" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="I7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="K7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L7" s="30" t="s">
+      <c r="L7" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="32"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+      <c r="O7" s="28"/>
     </row>
     <row r="8" spans="7:15" ht="63" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G8" t="s">
@@ -1655,34 +1772,34 @@
       <c r="K8" t="s">
         <v>76</v>
       </c>
-      <c r="L8" s="34" t="s">
+      <c r="L8" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="M8" s="34"/>
-      <c r="N8" s="34"/>
-      <c r="O8" s="34"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
     </row>
     <row r="9" spans="7:15" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K9" t="s">
         <v>77</v>
       </c>
-      <c r="L9" s="34" t="s">
+      <c r="L9" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="M9" s="34"/>
-      <c r="N9" s="34"/>
-      <c r="O9" s="34"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
     </row>
     <row r="10" spans="7:15" ht="60.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="K10" t="s">
         <v>92</v>
       </c>
-      <c r="L10" s="34" t="s">
+      <c r="L10" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="M10" s="34"/>
-      <c r="N10" s="34"/>
-      <c r="O10" s="34"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
     </row>
     <row r="11" spans="7:15" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G11" t="s">
@@ -1700,12 +1817,12 @@
       <c r="K11" t="s">
         <v>84</v>
       </c>
-      <c r="L11" s="29" t="s">
+      <c r="L11" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
     </row>
     <row r="12" spans="7:15" x14ac:dyDescent="0.3">
       <c r="J12" t="s">
@@ -1714,12 +1831,12 @@
       <c r="K12" t="s">
         <v>101</v>
       </c>
-      <c r="L12" s="34" t="s">
+      <c r="L12" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="M12" s="34"/>
-      <c r="N12" s="34"/>
-      <c r="O12" s="34"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
     </row>
     <row r="13" spans="7:15" x14ac:dyDescent="0.3">
       <c r="J13" t="s">
@@ -1728,24 +1845,24 @@
       <c r="K13" t="s">
         <v>97</v>
       </c>
-      <c r="L13" s="34" t="s">
+      <c r="L13" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
     </row>
     <row r="14" spans="7:15" x14ac:dyDescent="0.3">
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-    </row>
-    <row r="15" spans="7:15" ht="33" x14ac:dyDescent="0.3">
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+    </row>
+    <row r="15" spans="7:15" x14ac:dyDescent="0.3">
       <c r="G15" t="s">
         <v>89</v>
       </c>
-      <c r="H15" s="28" t="s">
+      <c r="H15" s="10" t="s">
         <v>90</v>
       </c>
       <c r="J15" t="s">
@@ -1754,19 +1871,19 @@
       <c r="K15" t="s">
         <v>86</v>
       </c>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
     </row>
     <row r="16" spans="7:15" x14ac:dyDescent="0.3">
       <c r="K16" t="s">
         <v>87</v>
       </c>
-      <c r="L16" s="34"/>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
     </row>
     <row r="17" spans="9:15" x14ac:dyDescent="0.3">
       <c r="I17" t="s">
@@ -1778,10 +1895,10 @@
       <c r="K17" t="s">
         <v>78</v>
       </c>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="34"/>
-      <c r="O17" s="34"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
     </row>
     <row r="18" spans="9:15" x14ac:dyDescent="0.3">
       <c r="J18" t="s">
@@ -1790,24 +1907,30 @@
       <c r="K18" t="s">
         <v>80</v>
       </c>
-      <c r="L18" s="33"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="33"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="23"/>
     </row>
     <row r="19" spans="9:15" x14ac:dyDescent="0.3">
       <c r="K19" t="s">
         <v>83</v>
       </c>
-      <c r="L19" s="34" t="s">
+      <c r="L19" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="M19" s="34"/>
-      <c r="N19" s="34"/>
-      <c r="O19" s="34"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="25"/>
+      <c r="O19" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="L9:O9"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="L19:O19"/>
+    <mergeCell ref="L12:O12"/>
     <mergeCell ref="L18:O18"/>
     <mergeCell ref="L11:O11"/>
     <mergeCell ref="L13:O13"/>
@@ -1815,12 +1938,6 @@
     <mergeCell ref="L15:O15"/>
     <mergeCell ref="L16:O16"/>
     <mergeCell ref="L17:O17"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="L19:O19"/>
-    <mergeCell ref="L12:O12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
